--- a/VersionRecords/Version 400系统/版本Bug和特性计划及评审表v400系统_EQ组.xlsx
+++ b/VersionRecords/Version 400系统/版本Bug和特性计划及评审表v400系统_EQ组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760"/>
+    <workbookView xWindow="5730" yWindow="3870" windowWidth="25125" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="版本400系统 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="64">
   <si>
     <t>No</t>
   </si>
@@ -210,6 +210,46 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
+    <t>新增</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加400API日志配置</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>400系统</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>#400-conf
+sysconfig.tele_url = http://210.14.79.50
+sysconfig.tele_username = FA77F6F83B1BC85AB9AC707578A92CB8
+sysconfig.tele_password = 6F0D7335837343D2BD731F36E88F9854
+sysconfig.tele_generator_num = 4009006868</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加400API连接参数</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-bs</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>mogoroom-tasktracker</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>####################### 400log #######################
 log4j.logger.TeleAPILog=DEBUG,teleAPILog
@@ -232,23 +272,11 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t>新增</t>
+    <t>公测环境</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>增加400API日志配置</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
-    <t>400系统</t>
-    <phoneticPr fontId="16" type="noConversion"/>
-  </si>
-  <si>
     <t>生产环境</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>公测环境</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +543,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -637,6 +665,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4171,7 +4208,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4179,7 +4216,7 @@
     <col min="1" max="1" width="3.875" customWidth="1"/>
     <col min="2" max="2" width="10.125" style="27" customWidth="1"/>
     <col min="3" max="3" width="7" style="27" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="27" customWidth="1"/>
+    <col min="4" max="4" width="20" style="27" customWidth="1"/>
     <col min="5" max="5" width="35" style="27" customWidth="1"/>
     <col min="6" max="6" width="9.125" style="27" customWidth="1"/>
     <col min="7" max="7" width="91.5" style="27" customWidth="1"/>
@@ -5091,7 +5128,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>49</v>
@@ -5100,13 +5137,13 @@
         <v>51</v>
       </c>
       <c r="F4" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>53</v>
-      </c>
-      <c r="G4" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>54</v>
       </c>
       <c r="I4" s="33" t="s">
         <v>48</v>
@@ -5122,34 +5159,82 @@
       </c>
       <c r="M4" s="34"/>
     </row>
-    <row r="5" spans="1:13" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+    <row r="5" spans="1:13" s="22" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="25">
+        <v>2</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="M5" s="25"/>
     </row>
-    <row r="6" spans="1:13" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+    <row r="6" spans="1:13" s="22" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
+        <v>3</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -5205,7 +5290,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6125,7 +6210,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>49</v>
@@ -6134,16 +6219,16 @@
         <v>51</v>
       </c>
       <c r="F4" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>54</v>
-      </c>
       <c r="I4" s="33" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>46</v>
@@ -6156,34 +6241,82 @@
       </c>
       <c r="M4" s="34"/>
     </row>
-    <row r="5" spans="1:13" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+    <row r="5" spans="1:13" s="22" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="25">
+        <v>2</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="M5" s="25"/>
     </row>
-    <row r="6" spans="1:13" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+    <row r="6" spans="1:13" s="22" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
+        <v>3</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -6207,10 +6340,10 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65531:F65543 F131067:F131079 F196603:F196615 F262139:F262151 F327675:F327687 F393211:F393223 F458747:F458759 F524283:F524295 F589819:F589831 F655355:F655367 F720891:F720903 F786427:F786439 F851963:F851975 F917499:F917511 F983035:F983047 JB65531:JB65543 JB131067:JB131079 JB196603:JB196615 JB262139:JB262151 JB327675:JB327687 JB393211:JB393223 JB458747:JB458759 JB524283:JB524295 JB589819:JB589831 JB655355:JB655367 JB720891:JB720903 JB786427:JB786439 JB851963:JB851975 JB917499:JB917511 JB983035:JB983047 SX65531:SX65543 SX131067:SX131079 SX196603:SX196615 SX262139:SX262151 SX327675:SX327687 SX393211:SX393223 SX458747:SX458759 SX524283:SX524295 SX589819:SX589831 SX655355:SX655367 SX720891:SX720903 SX786427:SX786439 SX851963:SX851975 SX917499:SX917511 SX983035:SX983047 ACT65531:ACT65543 ACT131067:ACT131079 ACT196603:ACT196615 ACT262139:ACT262151 ACT327675:ACT327687 ACT393211:ACT393223 ACT458747:ACT458759 ACT524283:ACT524295 ACT589819:ACT589831 ACT655355:ACT655367 ACT720891:ACT720903 ACT786427:ACT786439 ACT851963:ACT851975 ACT917499:ACT917511 ACT983035:ACT983047 AMP65531:AMP65543 AMP131067:AMP131079 AMP196603:AMP196615 AMP262139:AMP262151 AMP327675:AMP327687 AMP393211:AMP393223 AMP458747:AMP458759 AMP524283:AMP524295 AMP589819:AMP589831 AMP655355:AMP655367 AMP720891:AMP720903 AMP786427:AMP786439 AMP851963:AMP851975 AMP917499:AMP917511 AMP983035:AMP983047 AWL65531:AWL65543 AWL131067:AWL131079 AWL196603:AWL196615 AWL262139:AWL262151 AWL327675:AWL327687 AWL393211:AWL393223 AWL458747:AWL458759 AWL524283:AWL524295 AWL589819:AWL589831 AWL655355:AWL655367 AWL720891:AWL720903 AWL786427:AWL786439 AWL851963:AWL851975 AWL917499:AWL917511 AWL983035:AWL983047 BGH65531:BGH65543 BGH131067:BGH131079 BGH196603:BGH196615 BGH262139:BGH262151 BGH327675:BGH327687 BGH393211:BGH393223 BGH458747:BGH458759 BGH524283:BGH524295 BGH589819:BGH589831 BGH655355:BGH655367 BGH720891:BGH720903 BGH786427:BGH786439 BGH851963:BGH851975 BGH917499:BGH917511 BGH983035:BGH983047 BQD65531:BQD65543 BQD131067:BQD131079 BQD196603:BQD196615 BQD262139:BQD262151 BQD327675:BQD327687 BQD393211:BQD393223 BQD458747:BQD458759 BQD524283:BQD524295 BQD589819:BQD589831 BQD655355:BQD655367 BQD720891:BQD720903 BQD786427:BQD786439 BQD851963:BQD851975 BQD917499:BQD917511 BQD983035:BQD983047 BZZ65531:BZZ65543 BZZ131067:BZZ131079 BZZ196603:BZZ196615 BZZ262139:BZZ262151 BZZ327675:BZZ327687 BZZ393211:BZZ393223 BZZ458747:BZZ458759 BZZ524283:BZZ524295 BZZ589819:BZZ589831 BZZ655355:BZZ655367 BZZ720891:BZZ720903 BZZ786427:BZZ786439 BZZ851963:BZZ851975 BZZ917499:BZZ917511 BZZ983035:BZZ983047 CJV65531:CJV65543 CJV131067:CJV131079 CJV196603:CJV196615 CJV262139:CJV262151 CJV327675:CJV327687 CJV393211:CJV393223 CJV458747:CJV458759 CJV524283:CJV524295 CJV589819:CJV589831 CJV655355:CJV655367 CJV720891:CJV720903 CJV786427:CJV786439 CJV851963:CJV851975 CJV917499:CJV917511 CJV983035:CJV983047 CTR65531:CTR65543 CTR131067:CTR131079 CTR196603:CTR196615 CTR262139:CTR262151 CTR327675:CTR327687 CTR393211:CTR393223 CTR458747:CTR458759 CTR524283:CTR524295 CTR589819:CTR589831 CTR655355:CTR655367 CTR720891:CTR720903 CTR786427:CTR786439 CTR851963:CTR851975 CTR917499:CTR917511 CTR983035:CTR983047 DDN65531:DDN65543 DDN131067:DDN131079 DDN196603:DDN196615 DDN262139:DDN262151 DDN327675:DDN327687 DDN393211:DDN393223 DDN458747:DDN458759 DDN524283:DDN524295 DDN589819:DDN589831 DDN655355:DDN655367 DDN720891:DDN720903 DDN786427:DDN786439 DDN851963:DDN851975 DDN917499:DDN917511 DDN983035:DDN983047 DNJ65531:DNJ65543 DNJ131067:DNJ131079 DNJ196603:DNJ196615 DNJ262139:DNJ262151 DNJ327675:DNJ327687 DNJ393211:DNJ393223 DNJ458747:DNJ458759 DNJ524283:DNJ524295 DNJ589819:DNJ589831 DNJ655355:DNJ655367 DNJ720891:DNJ720903 DNJ786427:DNJ786439 DNJ851963:DNJ851975 DNJ917499:DNJ917511 DNJ983035:DNJ983047 DXF65531:DXF65543 DXF131067:DXF131079 DXF196603:DXF196615 DXF262139:DXF262151 DXF327675:DXF327687 DXF393211:DXF393223 DXF458747:DXF458759 DXF524283:DXF524295 DXF589819:DXF589831 DXF655355:DXF655367 DXF720891:DXF720903 DXF786427:DXF786439 DXF851963:DXF851975 DXF917499:DXF917511 DXF983035:DXF983047 EHB65531:EHB65543 EHB131067:EHB131079 EHB196603:EHB196615 EHB262139:EHB262151 EHB327675:EHB327687 EHB393211:EHB393223 EHB458747:EHB458759 EHB524283:EHB524295 EHB589819:EHB589831 EHB655355:EHB655367 EHB720891:EHB720903 EHB786427:EHB786439 EHB851963:EHB851975 EHB917499:EHB917511 EHB983035:EHB983047 EQX65531:EQX65543 EQX131067:EQX131079 EQX196603:EQX196615 EQX262139:EQX262151 EQX327675:EQX327687 EQX393211:EQX393223 EQX458747:EQX458759 EQX524283:EQX524295 EQX589819:EQX589831 EQX655355:EQX655367 EQX720891:EQX720903 EQX786427:EQX786439 EQX851963:EQX851975 EQX917499:EQX917511 EQX983035:EQX983047 FAT65531:FAT65543 FAT131067:FAT131079 FAT196603:FAT196615 FAT262139:FAT262151 FAT327675:FAT327687 FAT393211:FAT393223 FAT458747:FAT458759 FAT524283:FAT524295 FAT589819:FAT589831 FAT655355:FAT655367 FAT720891:FAT720903 FAT786427:FAT786439 FAT851963:FAT851975 FAT917499:FAT917511 FAT983035:FAT983047 FKP65531:FKP65543 FKP131067:FKP131079 FKP196603:FKP196615 FKP262139:FKP262151 FKP327675:FKP327687 FKP393211:FKP393223 FKP458747:FKP458759 FKP524283:FKP524295 FKP589819:FKP589831 FKP655355:FKP655367 FKP720891:FKP720903 FKP786427:FKP786439 FKP851963:FKP851975 FKP917499:FKP917511 FKP983035:FKP983047 FUL65531:FUL65543 FUL131067:FUL131079 FUL196603:FUL196615 FUL262139:FUL262151 FUL327675:FUL327687 FUL393211:FUL393223 FUL458747:FUL458759 FUL524283:FUL524295 FUL589819:FUL589831 FUL655355:FUL655367 FUL720891:FUL720903 FUL786427:FUL786439 FUL851963:FUL851975 FUL917499:FUL917511 FUL983035:FUL983047 GEH65531:GEH65543 GEH131067:GEH131079 GEH196603:GEH196615 GEH262139:GEH262151 GEH327675:GEH327687 GEH393211:GEH393223 GEH458747:GEH458759 GEH524283:GEH524295 GEH589819:GEH589831 GEH655355:GEH655367 GEH720891:GEH720903 GEH786427:GEH786439 GEH851963:GEH851975 GEH917499:GEH917511 GEH983035:GEH983047 GOD65531:GOD65543 GOD131067:GOD131079 GOD196603:GOD196615 GOD262139:GOD262151 GOD327675:GOD327687 GOD393211:GOD393223 GOD458747:GOD458759 GOD524283:GOD524295 GOD589819:GOD589831 GOD655355:GOD655367 GOD720891:GOD720903 GOD786427:GOD786439 GOD851963:GOD851975 GOD917499:GOD917511 GOD983035:GOD983047 GXZ65531:GXZ65543 GXZ131067:GXZ131079 GXZ196603:GXZ196615 GXZ262139:GXZ262151 GXZ327675:GXZ327687 GXZ393211:GXZ393223 GXZ458747:GXZ458759 GXZ524283:GXZ524295 GXZ589819:GXZ589831 GXZ655355:GXZ655367 GXZ720891:GXZ720903 GXZ786427:GXZ786439 GXZ851963:GXZ851975 GXZ917499:GXZ917511 GXZ983035:GXZ983047 HHV65531:HHV65543 HHV131067:HHV131079 HHV196603:HHV196615 HHV262139:HHV262151 HHV327675:HHV327687 HHV393211:HHV393223 HHV458747:HHV458759 HHV524283:HHV524295 HHV589819:HHV589831 HHV655355:HHV655367 HHV720891:HHV720903 HHV786427:HHV786439 HHV851963:HHV851975 HHV917499:HHV917511 HHV983035:HHV983047 HRR65531:HRR65543 HRR131067:HRR131079 HRR196603:HRR196615 HRR262139:HRR262151 HRR327675:HRR327687 HRR393211:HRR393223 HRR458747:HRR458759 HRR524283:HRR524295 HRR589819:HRR589831 HRR655355:HRR655367 HRR720891:HRR720903 HRR786427:HRR786439 HRR851963:HRR851975 HRR917499:HRR917511 HRR983035:HRR983047 IBN65531:IBN65543 IBN131067:IBN131079 IBN196603:IBN196615 IBN262139:IBN262151 IBN327675:IBN327687 IBN393211:IBN393223 IBN458747:IBN458759 IBN524283:IBN524295 IBN589819:IBN589831 IBN655355:IBN655367 IBN720891:IBN720903 IBN786427:IBN786439 IBN851963:IBN851975 IBN917499:IBN917511 IBN983035:IBN983047 ILJ65531:ILJ65543 ILJ131067:ILJ131079 ILJ196603:ILJ196615 ILJ262139:ILJ262151 ILJ327675:ILJ327687 ILJ393211:ILJ393223 ILJ458747:ILJ458759 ILJ524283:ILJ524295 ILJ589819:ILJ589831 ILJ655355:ILJ655367 ILJ720891:ILJ720903 ILJ786427:ILJ786439 ILJ851963:ILJ851975 ILJ917499:ILJ917511 ILJ983035:ILJ983047 IVF65531:IVF65543 IVF131067:IVF131079 IVF196603:IVF196615 IVF262139:IVF262151 IVF327675:IVF327687 IVF393211:IVF393223 IVF458747:IVF458759 IVF524283:IVF524295 IVF589819:IVF589831 IVF655355:IVF655367 IVF720891:IVF720903 IVF786427:IVF786439 IVF851963:IVF851975 IVF917499:IVF917511 IVF983035:IVF983047 JFB65531:JFB65543 JFB131067:JFB131079 JFB196603:JFB196615 JFB262139:JFB262151 JFB327675:JFB327687 JFB393211:JFB393223 JFB458747:JFB458759 JFB524283:JFB524295 JFB589819:JFB589831 JFB655355:JFB655367 JFB720891:JFB720903 JFB786427:JFB786439 JFB851963:JFB851975 JFB917499:JFB917511 JFB983035:JFB983047 JOX65531:JOX65543 JOX131067:JOX131079 JOX196603:JOX196615 JOX262139:JOX262151 JOX327675:JOX327687 JOX393211:JOX393223 JOX458747:JOX458759 JOX524283:JOX524295 JOX589819:JOX589831 JOX655355:JOX655367 JOX720891:JOX720903 JOX786427:JOX786439 JOX851963:JOX851975 JOX917499:JOX917511 JOX983035:JOX983047 JYT65531:JYT65543 JYT131067:JYT131079 JYT196603:JYT196615 JYT262139:JYT262151 JYT327675:JYT327687 JYT393211:JYT393223 JYT458747:JYT458759 JYT524283:JYT524295 JYT589819:JYT589831 JYT655355:JYT655367 JYT720891:JYT720903 JYT786427:JYT786439 JYT851963:JYT851975 JYT917499:JYT917511 JYT983035:JYT983047 KIP65531:KIP65543 KIP131067:KIP131079 KIP196603:KIP196615 KIP262139:KIP262151 KIP327675:KIP327687 KIP393211:KIP393223 KIP458747:KIP458759 KIP524283:KIP524295 KIP589819:KIP589831 KIP655355:KIP655367 KIP720891:KIP720903 KIP786427:KIP786439 KIP851963:KIP851975 KIP917499:KIP917511 KIP983035:KIP983047 KSL65531:KSL65543 KSL131067:KSL131079 KSL196603:KSL196615 KSL262139:KSL262151 KSL327675:KSL327687 KSL393211:KSL393223 KSL458747:KSL458759 KSL524283:KSL524295 KSL589819:KSL589831 KSL655355:KSL655367 KSL720891:KSL720903 KSL786427:KSL786439 KSL851963:KSL851975 KSL917499:KSL917511 KSL983035:KSL983047 LCH65531:LCH65543 LCH131067:LCH131079 LCH196603:LCH196615 LCH262139:LCH262151 LCH327675:LCH327687 LCH393211:LCH393223 LCH458747:LCH458759 LCH524283:LCH524295 LCH589819:LCH589831 LCH655355:LCH655367 LCH720891:LCH720903 LCH786427:LCH786439 LCH851963:LCH851975 LCH917499:LCH917511 LCH983035:LCH983047 LMD65531:LMD65543 LMD131067:LMD131079 LMD196603:LMD196615 LMD262139:LMD262151 LMD327675:LMD327687 LMD393211:LMD393223 LMD458747:LMD458759 LMD524283:LMD524295 LMD589819:LMD589831 LMD655355:LMD655367 LMD720891:LMD720903 LMD786427:LMD786439 LMD851963:LMD851975 LMD917499:LMD917511 LMD983035:LMD983047 LVZ65531:LVZ65543 LVZ131067:LVZ131079 LVZ196603:LVZ196615 LVZ262139:LVZ262151 LVZ327675:LVZ327687 LVZ393211:LVZ393223 LVZ458747:LVZ458759 LVZ524283:LVZ524295 LVZ589819:LVZ589831 LVZ655355:LVZ655367 LVZ720891:LVZ720903 LVZ786427:LVZ786439 LVZ851963:LVZ851975 LVZ917499:LVZ917511 LVZ983035:LVZ983047 MFV65531:MFV65543 MFV131067:MFV131079 MFV196603:MFV196615 MFV262139:MFV262151 MFV327675:MFV327687 MFV393211:MFV393223 MFV458747:MFV458759 MFV524283:MFV524295 MFV589819:MFV589831 MFV655355:MFV655367 MFV720891:MFV720903 MFV786427:MFV786439 MFV851963:MFV851975 MFV917499:MFV917511 MFV983035:MFV983047 MPR65531:MPR65543 MPR131067:MPR131079 MPR196603:MPR196615 MPR262139:MPR262151 MPR327675:MPR327687 MPR393211:MPR393223 MPR458747:MPR458759 MPR524283:MPR524295 MPR589819:MPR589831 MPR655355:MPR655367 MPR720891:MPR720903 MPR786427:MPR786439 MPR851963:MPR851975 MPR917499:MPR917511 MPR983035:MPR983047 MZN65531:MZN65543 MZN131067:MZN131079 MZN196603:MZN196615 MZN262139:MZN262151 MZN327675:MZN327687 MZN393211:MZN393223 MZN458747:MZN458759 MZN524283:MZN524295 MZN589819:MZN589831 MZN655355:MZN655367 MZN720891:MZN720903 MZN786427:MZN786439 MZN851963:MZN851975 MZN917499:MZN917511 MZN983035:MZN983047 NJJ65531:NJJ65543 NJJ131067:NJJ131079 NJJ196603:NJJ196615 NJJ262139:NJJ262151 NJJ327675:NJJ327687 NJJ393211:NJJ393223 NJJ458747:NJJ458759 NJJ524283:NJJ524295 NJJ589819:NJJ589831 NJJ655355:NJJ655367 NJJ720891:NJJ720903 NJJ786427:NJJ786439 NJJ851963:NJJ851975 NJJ917499:NJJ917511 NJJ983035:NJJ983047 NTF65531:NTF65543 NTF131067:NTF131079 NTF196603:NTF196615 NTF262139:NTF262151 NTF327675:NTF327687 NTF393211:NTF393223 NTF458747:NTF458759 NTF524283:NTF524295 NTF589819:NTF589831 NTF655355:NTF655367 NTF720891:NTF720903 NTF786427:NTF786439 NTF851963:NTF851975 NTF917499:NTF917511 NTF983035:NTF983047 ODB65531:ODB65543 ODB131067:ODB131079 ODB196603:ODB196615 ODB262139:ODB262151 ODB327675:ODB327687 ODB393211:ODB393223 ODB458747:ODB458759 ODB524283:ODB524295 ODB589819:ODB589831 ODB655355:ODB655367 ODB720891:ODB720903 ODB786427:ODB786439 ODB851963:ODB851975 ODB917499:ODB917511 ODB983035:ODB983047 OMX65531:OMX65543 OMX131067:OMX131079 OMX196603:OMX196615 OMX262139:OMX262151 OMX327675:OMX327687 OMX393211:OMX393223 OMX458747:OMX458759 OMX524283:OMX524295 OMX589819:OMX589831 OMX655355:OMX655367 OMX720891:OMX720903 OMX786427:OMX786439 OMX851963:OMX851975 OMX917499:OMX917511 OMX983035:OMX983047 OWT65531:OWT65543 OWT131067:OWT131079 OWT196603:OWT196615 OWT262139:OWT262151 OWT327675:OWT327687 OWT393211:OWT393223 OWT458747:OWT458759 OWT524283:OWT524295 OWT589819:OWT589831 OWT655355:OWT655367 OWT720891:OWT720903 OWT786427:OWT786439 OWT851963:OWT851975 OWT917499:OWT917511 OWT983035:OWT983047 PGP65531:PGP65543 PGP131067:PGP131079 PGP196603:PGP196615 PGP262139:PGP262151 PGP327675:PGP327687 PGP393211:PGP393223 PGP458747:PGP458759 PGP524283:PGP524295 PGP589819:PGP589831 PGP655355:PGP655367 PGP720891:PGP720903 PGP786427:PGP786439 PGP851963:PGP851975 PGP917499:PGP917511 PGP983035:PGP983047 PQL65531:PQL65543 PQL131067:PQL131079 PQL196603:PQL196615 PQL262139:PQL262151 PQL327675:PQL327687 PQL393211:PQL393223 PQL458747:PQL458759 PQL524283:PQL524295 PQL589819:PQL589831 PQL655355:PQL655367 PQL720891:PQL720903 PQL786427:PQL786439 PQL851963:PQL851975 PQL917499:PQL917511 PQL983035:PQL983047 QAH65531:QAH65543 QAH131067:QAH131079 QAH196603:QAH196615 QAH262139:QAH262151 QAH327675:QAH327687 QAH393211:QAH393223 QAH458747:QAH458759 QAH524283:QAH524295 QAH589819:QAH589831 QAH655355:QAH655367 QAH720891:QAH720903 QAH786427:QAH786439 QAH851963:QAH851975 QAH917499:QAH917511 QAH983035:QAH983047 QKD65531:QKD65543 QKD131067:QKD131079 QKD196603:QKD196615 QKD262139:QKD262151 QKD327675:QKD327687 QKD393211:QKD393223 QKD458747:QKD458759 QKD524283:QKD524295 QKD589819:QKD589831 QKD655355:QKD655367 QKD720891:QKD720903 QKD786427:QKD786439 QKD851963:QKD851975 QKD917499:QKD917511 QKD983035:QKD983047 QTZ65531:QTZ65543 QTZ131067:QTZ131079 QTZ196603:QTZ196615 QTZ262139:QTZ262151 QTZ327675:QTZ327687 QTZ393211:QTZ393223 QTZ458747:QTZ458759 QTZ524283:QTZ524295 QTZ589819:QTZ589831 QTZ655355:QTZ655367 QTZ720891:QTZ720903 QTZ786427:QTZ786439 QTZ851963:QTZ851975 QTZ917499:QTZ917511 QTZ983035:QTZ983047 RDV65531:RDV65543 RDV131067:RDV131079 RDV196603:RDV196615 RDV262139:RDV262151 RDV327675:RDV327687 RDV393211:RDV393223 RDV458747:RDV458759 RDV524283:RDV524295 RDV589819:RDV589831 RDV655355:RDV655367 RDV720891:RDV720903 RDV786427:RDV786439 RDV851963:RDV851975 RDV917499:RDV917511 RDV983035:RDV983047 RNR65531:RNR65543 RNR131067:RNR131079 RNR196603:RNR196615 RNR262139:RNR262151 RNR327675:RNR327687 RNR393211:RNR393223 RNR458747:RNR458759 RNR524283:RNR524295 RNR589819:RNR589831 RNR655355:RNR655367 RNR720891:RNR720903 RNR786427:RNR786439 RNR851963:RNR851975 RNR917499:RNR917511 RNR983035:RNR983047 RXN65531:RXN65543 RXN131067:RXN131079 RXN196603:RXN196615 RXN262139:RXN262151 RXN327675:RXN327687 RXN393211:RXN393223 RXN458747:RXN458759 RXN524283:RXN524295 RXN589819:RXN589831 RXN655355:RXN655367 RXN720891:RXN720903 RXN786427:RXN786439 RXN851963:RXN851975 RXN917499:RXN917511 RXN983035:RXN983047 SHJ65531:SHJ65543 SHJ131067:SHJ131079 SHJ196603:SHJ196615 SHJ262139:SHJ262151 SHJ327675:SHJ327687 SHJ393211:SHJ393223 SHJ458747:SHJ458759 SHJ524283:SHJ524295 SHJ589819:SHJ589831 SHJ655355:SHJ655367 SHJ720891:SHJ720903 SHJ786427:SHJ786439 SHJ851963:SHJ851975 SHJ917499:SHJ917511 SHJ983035:SHJ983047 SRF65531:SRF65543 SRF131067:SRF131079 SRF196603:SRF196615 SRF262139:SRF262151 SRF327675:SRF327687 SRF393211:SRF393223 SRF458747:SRF458759 SRF524283:SRF524295 SRF589819:SRF589831 SRF655355:SRF655367 SRF720891:SRF720903 SRF786427:SRF786439 SRF851963:SRF851975 SRF917499:SRF917511 SRF983035:SRF983047 TBB65531:TBB65543 TBB131067:TBB131079 TBB196603:TBB196615 TBB262139:TBB262151 TBB327675:TBB327687 TBB393211:TBB393223 TBB458747:TBB458759 TBB524283:TBB524295 TBB589819:TBB589831 TBB655355:TBB655367 TBB720891:TBB720903 TBB786427:TBB786439 TBB851963:TBB851975 TBB917499:TBB917511 TBB983035:TBB983047 TKX65531:TKX65543 TKX131067:TKX131079 TKX196603:TKX196615 TKX262139:TKX262151 TKX327675:TKX327687 TKX393211:TKX393223 TKX458747:TKX458759 TKX524283:TKX524295 TKX589819:TKX589831 TKX655355:TKX655367 TKX720891:TKX720903 TKX786427:TKX786439 TKX851963:TKX851975 TKX917499:TKX917511 TKX983035:TKX983047 TUT65531:TUT65543 TUT131067:TUT131079 TUT196603:TUT196615 TUT262139:TUT262151 TUT327675:TUT327687 TUT393211:TUT393223 TUT458747:TUT458759 TUT524283:TUT524295 TUT589819:TUT589831 TUT655355:TUT655367 TUT720891:TUT720903 TUT786427:TUT786439 TUT851963:TUT851975 TUT917499:TUT917511 TUT983035:TUT983047 UEP65531:UEP65543 UEP131067:UEP131079 UEP196603:UEP196615 UEP262139:UEP262151 UEP327675:UEP327687 UEP393211:UEP393223 UEP458747:UEP458759 UEP524283:UEP524295 UEP589819:UEP589831 UEP655355:UEP655367 UEP720891:UEP720903 UEP786427:UEP786439 UEP851963:UEP851975 UEP917499:UEP917511 UEP983035:UEP983047 UOL65531:UOL65543 UOL131067:UOL131079 UOL196603:UOL196615 UOL262139:UOL262151 UOL327675:UOL327687 UOL393211:UOL393223 UOL458747:UOL458759 UOL524283:UOL524295 UOL589819:UOL589831 UOL655355:UOL655367 UOL720891:UOL720903 UOL786427:UOL786439 UOL851963:UOL851975 UOL917499:UOL917511 UOL983035:UOL983047 UYH65531:UYH65543 UYH131067:UYH131079 UYH196603:UYH196615 UYH262139:UYH262151 UYH327675:UYH327687 UYH393211:UYH393223 UYH458747:UYH458759 UYH524283:UYH524295 UYH589819:UYH589831 UYH655355:UYH655367 UYH720891:UYH720903 UYH786427:UYH786439 UYH851963:UYH851975 UYH917499:UYH917511 UYH983035:UYH983047 VID65531:VID65543 VID131067:VID131079 VID196603:VID196615 VID262139:VID262151 VID327675:VID327687 VID393211:VID393223 VID458747:VID458759 VID524283:VID524295 VID589819:VID589831 VID655355:VID655367 VID720891:VID720903 VID786427:VID786439 VID851963:VID851975 VID917499:VID917511 VID983035:VID983047 VRZ65531:VRZ65543 VRZ131067:VRZ131079 VRZ196603:VRZ196615 VRZ262139:VRZ262151 VRZ327675:VRZ327687 VRZ393211:VRZ393223 VRZ458747:VRZ458759 VRZ524283:VRZ524295 VRZ589819:VRZ589831 VRZ655355:VRZ655367 VRZ720891:VRZ720903 VRZ786427:VRZ786439 VRZ851963:VRZ851975 VRZ917499:VRZ917511 VRZ983035:VRZ983047 WBV65531:WBV65543 WBV131067:WBV131079 WBV196603:WBV196615 WBV262139:WBV262151 WBV327675:WBV327687 WBV393211:WBV393223 WBV458747:WBV458759 WBV524283:WBV524295 WBV589819:WBV589831 WBV655355:WBV655367 WBV720891:WBV720903 WBV786427:WBV786439 WBV851963:WBV851975 WBV917499:WBV917511 WBV983035:WBV983047 WLR65531:WLR65543 WLR131067:WLR131079 WLR196603:WLR196615 WLR262139:WLR262151 WLR327675:WLR327687 WLR393211:WLR393223 WLR458747:WLR458759 WLR524283:WLR524295 WLR589819:WLR589831 WLR655355:WLR655367 WLR720891:WLR720903 WLR786427:WLR786439 WLR851963:WLR851975 WLR917499:WLR917511 WLR983035:WLR983047 WVN983035:WVN983047 WVN65531:WVN65543 WVN131067:WVN131079 WVN196603:WVN196615 WVN262139:WVN262151 WVN327675:WVN327687 WVN393211:WVN393223 WVN458747:WVN458759 WVN524283:WVN524295 WVN589819:WVN589831 WVN655355:WVN655367 WVN720891:WVN720903 WVN786427:WVN786439 WVN851963:WVN851975 WVN917499:WVN917511 JB4:JB7 WVN4:WVN7 AMP4:AMP7 WLR4:WLR7 WBV4:WBV7 VRZ4:VRZ7 VID4:VID7 UYH4:UYH7 UOL4:UOL7 UEP4:UEP7 TUT4:TUT7 TKX4:TKX7 TBB4:TBB7 SRF4:SRF7 SHJ4:SHJ7 RXN4:RXN7 RNR4:RNR7 RDV4:RDV7 QTZ4:QTZ7 QKD4:QKD7 QAH4:QAH7 PQL4:PQL7 PGP4:PGP7 OWT4:OWT7 OMX4:OMX7 ODB4:ODB7 NTF4:NTF7 NJJ4:NJJ7 MZN4:MZN7 MPR4:MPR7 MFV4:MFV7 LVZ4:LVZ7 LMD4:LMD7 LCH4:LCH7 KSL4:KSL7 KIP4:KIP7 JYT4:JYT7 JOX4:JOX7 JFB4:JFB7 IVF4:IVF7 ILJ4:ILJ7 IBN4:IBN7 HRR4:HRR7 HHV4:HHV7 GXZ4:GXZ7 GOD4:GOD7 GEH4:GEH7 FUL4:FUL7 FKP4:FKP7 FAT4:FAT7 EQX4:EQX7 EHB4:EHB7 DXF4:DXF7 DNJ4:DNJ7 DDN4:DDN7 CTR4:CTR7 CJV4:CJV7 BZZ4:BZZ7 BQD4:BQD7 BGH4:BGH7 AWL4:AWL7 F4:F7 ACT4:ACT7 SX4:SX7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65531:F65543 F131067:F131079 F196603:F196615 F262139:F262151 F327675:F327687 F393211:F393223 F458747:F458759 F524283:F524295 F589819:F589831 F655355:F655367 F720891:F720903 F786427:F786439 F851963:F851975 F917499:F917511 F983035:F983047 JB65531:JB65543 JB131067:JB131079 JB196603:JB196615 JB262139:JB262151 JB327675:JB327687 JB393211:JB393223 JB458747:JB458759 JB524283:JB524295 JB589819:JB589831 JB655355:JB655367 JB720891:JB720903 JB786427:JB786439 JB851963:JB851975 JB917499:JB917511 JB983035:JB983047 SX65531:SX65543 SX131067:SX131079 SX196603:SX196615 SX262139:SX262151 SX327675:SX327687 SX393211:SX393223 SX458747:SX458759 SX524283:SX524295 SX589819:SX589831 SX655355:SX655367 SX720891:SX720903 SX786427:SX786439 SX851963:SX851975 SX917499:SX917511 SX983035:SX983047 ACT65531:ACT65543 ACT131067:ACT131079 ACT196603:ACT196615 ACT262139:ACT262151 ACT327675:ACT327687 ACT393211:ACT393223 ACT458747:ACT458759 ACT524283:ACT524295 ACT589819:ACT589831 ACT655355:ACT655367 ACT720891:ACT720903 ACT786427:ACT786439 ACT851963:ACT851975 ACT917499:ACT917511 ACT983035:ACT983047 AMP65531:AMP65543 AMP131067:AMP131079 AMP196603:AMP196615 AMP262139:AMP262151 AMP327675:AMP327687 AMP393211:AMP393223 AMP458747:AMP458759 AMP524283:AMP524295 AMP589819:AMP589831 AMP655355:AMP655367 AMP720891:AMP720903 AMP786427:AMP786439 AMP851963:AMP851975 AMP917499:AMP917511 AMP983035:AMP983047 AWL65531:AWL65543 AWL131067:AWL131079 AWL196603:AWL196615 AWL262139:AWL262151 AWL327675:AWL327687 AWL393211:AWL393223 AWL458747:AWL458759 AWL524283:AWL524295 AWL589819:AWL589831 AWL655355:AWL655367 AWL720891:AWL720903 AWL786427:AWL786439 AWL851963:AWL851975 AWL917499:AWL917511 AWL983035:AWL983047 BGH65531:BGH65543 BGH131067:BGH131079 BGH196603:BGH196615 BGH262139:BGH262151 BGH327675:BGH327687 BGH393211:BGH393223 BGH458747:BGH458759 BGH524283:BGH524295 BGH589819:BGH589831 BGH655355:BGH655367 BGH720891:BGH720903 BGH786427:BGH786439 BGH851963:BGH851975 BGH917499:BGH917511 BGH983035:BGH983047 BQD65531:BQD65543 BQD131067:BQD131079 BQD196603:BQD196615 BQD262139:BQD262151 BQD327675:BQD327687 BQD393211:BQD393223 BQD458747:BQD458759 BQD524283:BQD524295 BQD589819:BQD589831 BQD655355:BQD655367 BQD720891:BQD720903 BQD786427:BQD786439 BQD851963:BQD851975 BQD917499:BQD917511 BQD983035:BQD983047 BZZ65531:BZZ65543 BZZ131067:BZZ131079 BZZ196603:BZZ196615 BZZ262139:BZZ262151 BZZ327675:BZZ327687 BZZ393211:BZZ393223 BZZ458747:BZZ458759 BZZ524283:BZZ524295 BZZ589819:BZZ589831 BZZ655355:BZZ655367 BZZ720891:BZZ720903 BZZ786427:BZZ786439 BZZ851963:BZZ851975 BZZ917499:BZZ917511 BZZ983035:BZZ983047 CJV65531:CJV65543 CJV131067:CJV131079 CJV196603:CJV196615 CJV262139:CJV262151 CJV327675:CJV327687 CJV393211:CJV393223 CJV458747:CJV458759 CJV524283:CJV524295 CJV589819:CJV589831 CJV655355:CJV655367 CJV720891:CJV720903 CJV786427:CJV786439 CJV851963:CJV851975 CJV917499:CJV917511 CJV983035:CJV983047 CTR65531:CTR65543 CTR131067:CTR131079 CTR196603:CTR196615 CTR262139:CTR262151 CTR327675:CTR327687 CTR393211:CTR393223 CTR458747:CTR458759 CTR524283:CTR524295 CTR589819:CTR589831 CTR655355:CTR655367 CTR720891:CTR720903 CTR786427:CTR786439 CTR851963:CTR851975 CTR917499:CTR917511 CTR983035:CTR983047 DDN65531:DDN65543 DDN131067:DDN131079 DDN196603:DDN196615 DDN262139:DDN262151 DDN327675:DDN327687 DDN393211:DDN393223 DDN458747:DDN458759 DDN524283:DDN524295 DDN589819:DDN589831 DDN655355:DDN655367 DDN720891:DDN720903 DDN786427:DDN786439 DDN851963:DDN851975 DDN917499:DDN917511 DDN983035:DDN983047 DNJ65531:DNJ65543 DNJ131067:DNJ131079 DNJ196603:DNJ196615 DNJ262139:DNJ262151 DNJ327675:DNJ327687 DNJ393211:DNJ393223 DNJ458747:DNJ458759 DNJ524283:DNJ524295 DNJ589819:DNJ589831 DNJ655355:DNJ655367 DNJ720891:DNJ720903 DNJ786427:DNJ786439 DNJ851963:DNJ851975 DNJ917499:DNJ917511 DNJ983035:DNJ983047 DXF65531:DXF65543 DXF131067:DXF131079 DXF196603:DXF196615 DXF262139:DXF262151 DXF327675:DXF327687 DXF393211:DXF393223 DXF458747:DXF458759 DXF524283:DXF524295 DXF589819:DXF589831 DXF655355:DXF655367 DXF720891:DXF720903 DXF786427:DXF786439 DXF851963:DXF851975 DXF917499:DXF917511 DXF983035:DXF983047 EHB65531:EHB65543 EHB131067:EHB131079 EHB196603:EHB196615 EHB262139:EHB262151 EHB327675:EHB327687 EHB393211:EHB393223 EHB458747:EHB458759 EHB524283:EHB524295 EHB589819:EHB589831 EHB655355:EHB655367 EHB720891:EHB720903 EHB786427:EHB786439 EHB851963:EHB851975 EHB917499:EHB917511 EHB983035:EHB983047 EQX65531:EQX65543 EQX131067:EQX131079 EQX196603:EQX196615 EQX262139:EQX262151 EQX327675:EQX327687 EQX393211:EQX393223 EQX458747:EQX458759 EQX524283:EQX524295 EQX589819:EQX589831 EQX655355:EQX655367 EQX720891:EQX720903 EQX786427:EQX786439 EQX851963:EQX851975 EQX917499:EQX917511 EQX983035:EQX983047 FAT65531:FAT65543 FAT131067:FAT131079 FAT196603:FAT196615 FAT262139:FAT262151 FAT327675:FAT327687 FAT393211:FAT393223 FAT458747:FAT458759 FAT524283:FAT524295 FAT589819:FAT589831 FAT655355:FAT655367 FAT720891:FAT720903 FAT786427:FAT786439 FAT851963:FAT851975 FAT917499:FAT917511 FAT983035:FAT983047 FKP65531:FKP65543 FKP131067:FKP131079 FKP196603:FKP196615 FKP262139:FKP262151 FKP327675:FKP327687 FKP393211:FKP393223 FKP458747:FKP458759 FKP524283:FKP524295 FKP589819:FKP589831 FKP655355:FKP655367 FKP720891:FKP720903 FKP786427:FKP786439 FKP851963:FKP851975 FKP917499:FKP917511 FKP983035:FKP983047 FUL65531:FUL65543 FUL131067:FUL131079 FUL196603:FUL196615 FUL262139:FUL262151 FUL327675:FUL327687 FUL393211:FUL393223 FUL458747:FUL458759 FUL524283:FUL524295 FUL589819:FUL589831 FUL655355:FUL655367 FUL720891:FUL720903 FUL786427:FUL786439 FUL851963:FUL851975 FUL917499:FUL917511 FUL983035:FUL983047 GEH65531:GEH65543 GEH131067:GEH131079 GEH196603:GEH196615 GEH262139:GEH262151 GEH327675:GEH327687 GEH393211:GEH393223 GEH458747:GEH458759 GEH524283:GEH524295 GEH589819:GEH589831 GEH655355:GEH655367 GEH720891:GEH720903 GEH786427:GEH786439 GEH851963:GEH851975 GEH917499:GEH917511 GEH983035:GEH983047 GOD65531:GOD65543 GOD131067:GOD131079 GOD196603:GOD196615 GOD262139:GOD262151 GOD327675:GOD327687 GOD393211:GOD393223 GOD458747:GOD458759 GOD524283:GOD524295 GOD589819:GOD589831 GOD655355:GOD655367 GOD720891:GOD720903 GOD786427:GOD786439 GOD851963:GOD851975 GOD917499:GOD917511 GOD983035:GOD983047 GXZ65531:GXZ65543 GXZ131067:GXZ131079 GXZ196603:GXZ196615 GXZ262139:GXZ262151 GXZ327675:GXZ327687 GXZ393211:GXZ393223 GXZ458747:GXZ458759 GXZ524283:GXZ524295 GXZ589819:GXZ589831 GXZ655355:GXZ655367 GXZ720891:GXZ720903 GXZ786427:GXZ786439 GXZ851963:GXZ851975 GXZ917499:GXZ917511 GXZ983035:GXZ983047 HHV65531:HHV65543 HHV131067:HHV131079 HHV196603:HHV196615 HHV262139:HHV262151 HHV327675:HHV327687 HHV393211:HHV393223 HHV458747:HHV458759 HHV524283:HHV524295 HHV589819:HHV589831 HHV655355:HHV655367 HHV720891:HHV720903 HHV786427:HHV786439 HHV851963:HHV851975 HHV917499:HHV917511 HHV983035:HHV983047 HRR65531:HRR65543 HRR131067:HRR131079 HRR196603:HRR196615 HRR262139:HRR262151 HRR327675:HRR327687 HRR393211:HRR393223 HRR458747:HRR458759 HRR524283:HRR524295 HRR589819:HRR589831 HRR655355:HRR655367 HRR720891:HRR720903 HRR786427:HRR786439 HRR851963:HRR851975 HRR917499:HRR917511 HRR983035:HRR983047 IBN65531:IBN65543 IBN131067:IBN131079 IBN196603:IBN196615 IBN262139:IBN262151 IBN327675:IBN327687 IBN393211:IBN393223 IBN458747:IBN458759 IBN524283:IBN524295 IBN589819:IBN589831 IBN655355:IBN655367 IBN720891:IBN720903 IBN786427:IBN786439 IBN851963:IBN851975 IBN917499:IBN917511 IBN983035:IBN983047 ILJ65531:ILJ65543 ILJ131067:ILJ131079 ILJ196603:ILJ196615 ILJ262139:ILJ262151 ILJ327675:ILJ327687 ILJ393211:ILJ393223 ILJ458747:ILJ458759 ILJ524283:ILJ524295 ILJ589819:ILJ589831 ILJ655355:ILJ655367 ILJ720891:ILJ720903 ILJ786427:ILJ786439 ILJ851963:ILJ851975 ILJ917499:ILJ917511 ILJ983035:ILJ983047 IVF65531:IVF65543 IVF131067:IVF131079 IVF196603:IVF196615 IVF262139:IVF262151 IVF327675:IVF327687 IVF393211:IVF393223 IVF458747:IVF458759 IVF524283:IVF524295 IVF589819:IVF589831 IVF655355:IVF655367 IVF720891:IVF720903 IVF786427:IVF786439 IVF851963:IVF851975 IVF917499:IVF917511 IVF983035:IVF983047 JFB65531:JFB65543 JFB131067:JFB131079 JFB196603:JFB196615 JFB262139:JFB262151 JFB327675:JFB327687 JFB393211:JFB393223 JFB458747:JFB458759 JFB524283:JFB524295 JFB589819:JFB589831 JFB655355:JFB655367 JFB720891:JFB720903 JFB786427:JFB786439 JFB851963:JFB851975 JFB917499:JFB917511 JFB983035:JFB983047 JOX65531:JOX65543 JOX131067:JOX131079 JOX196603:JOX196615 JOX262139:JOX262151 JOX327675:JOX327687 JOX393211:JOX393223 JOX458747:JOX458759 JOX524283:JOX524295 JOX589819:JOX589831 JOX655355:JOX655367 JOX720891:JOX720903 JOX786427:JOX786439 JOX851963:JOX851975 JOX917499:JOX917511 JOX983035:JOX983047 JYT65531:JYT65543 JYT131067:JYT131079 JYT196603:JYT196615 JYT262139:JYT262151 JYT327675:JYT327687 JYT393211:JYT393223 JYT458747:JYT458759 JYT524283:JYT524295 JYT589819:JYT589831 JYT655355:JYT655367 JYT720891:JYT720903 JYT786427:JYT786439 JYT851963:JYT851975 JYT917499:JYT917511 JYT983035:JYT983047 KIP65531:KIP65543 KIP131067:KIP131079 KIP196603:KIP196615 KIP262139:KIP262151 KIP327675:KIP327687 KIP393211:KIP393223 KIP458747:KIP458759 KIP524283:KIP524295 KIP589819:KIP589831 KIP655355:KIP655367 KIP720891:KIP720903 KIP786427:KIP786439 KIP851963:KIP851975 KIP917499:KIP917511 KIP983035:KIP983047 KSL65531:KSL65543 KSL131067:KSL131079 KSL196603:KSL196615 KSL262139:KSL262151 KSL327675:KSL327687 KSL393211:KSL393223 KSL458747:KSL458759 KSL524283:KSL524295 KSL589819:KSL589831 KSL655355:KSL655367 KSL720891:KSL720903 KSL786427:KSL786439 KSL851963:KSL851975 KSL917499:KSL917511 KSL983035:KSL983047 LCH65531:LCH65543 LCH131067:LCH131079 LCH196603:LCH196615 LCH262139:LCH262151 LCH327675:LCH327687 LCH393211:LCH393223 LCH458747:LCH458759 LCH524283:LCH524295 LCH589819:LCH589831 LCH655355:LCH655367 LCH720891:LCH720903 LCH786427:LCH786439 LCH851963:LCH851975 LCH917499:LCH917511 LCH983035:LCH983047 LMD65531:LMD65543 LMD131067:LMD131079 LMD196603:LMD196615 LMD262139:LMD262151 LMD327675:LMD327687 LMD393211:LMD393223 LMD458747:LMD458759 LMD524283:LMD524295 LMD589819:LMD589831 LMD655355:LMD655367 LMD720891:LMD720903 LMD786427:LMD786439 LMD851963:LMD851975 LMD917499:LMD917511 LMD983035:LMD983047 LVZ65531:LVZ65543 LVZ131067:LVZ131079 LVZ196603:LVZ196615 LVZ262139:LVZ262151 LVZ327675:LVZ327687 LVZ393211:LVZ393223 LVZ458747:LVZ458759 LVZ524283:LVZ524295 LVZ589819:LVZ589831 LVZ655355:LVZ655367 LVZ720891:LVZ720903 LVZ786427:LVZ786439 LVZ851963:LVZ851975 LVZ917499:LVZ917511 LVZ983035:LVZ983047 MFV65531:MFV65543 MFV131067:MFV131079 MFV196603:MFV196615 MFV262139:MFV262151 MFV327675:MFV327687 MFV393211:MFV393223 MFV458747:MFV458759 MFV524283:MFV524295 MFV589819:MFV589831 MFV655355:MFV655367 MFV720891:MFV720903 MFV786427:MFV786439 MFV851963:MFV851975 MFV917499:MFV917511 MFV983035:MFV983047 MPR65531:MPR65543 MPR131067:MPR131079 MPR196603:MPR196615 MPR262139:MPR262151 MPR327675:MPR327687 MPR393211:MPR393223 MPR458747:MPR458759 MPR524283:MPR524295 MPR589819:MPR589831 MPR655355:MPR655367 MPR720891:MPR720903 MPR786427:MPR786439 MPR851963:MPR851975 MPR917499:MPR917511 MPR983035:MPR983047 MZN65531:MZN65543 MZN131067:MZN131079 MZN196603:MZN196615 MZN262139:MZN262151 MZN327675:MZN327687 MZN393211:MZN393223 MZN458747:MZN458759 MZN524283:MZN524295 MZN589819:MZN589831 MZN655355:MZN655367 MZN720891:MZN720903 MZN786427:MZN786439 MZN851963:MZN851975 MZN917499:MZN917511 MZN983035:MZN983047 NJJ65531:NJJ65543 NJJ131067:NJJ131079 NJJ196603:NJJ196615 NJJ262139:NJJ262151 NJJ327675:NJJ327687 NJJ393211:NJJ393223 NJJ458747:NJJ458759 NJJ524283:NJJ524295 NJJ589819:NJJ589831 NJJ655355:NJJ655367 NJJ720891:NJJ720903 NJJ786427:NJJ786439 NJJ851963:NJJ851975 NJJ917499:NJJ917511 NJJ983035:NJJ983047 NTF65531:NTF65543 NTF131067:NTF131079 NTF196603:NTF196615 NTF262139:NTF262151 NTF327675:NTF327687 NTF393211:NTF393223 NTF458747:NTF458759 NTF524283:NTF524295 NTF589819:NTF589831 NTF655355:NTF655367 NTF720891:NTF720903 NTF786427:NTF786439 NTF851963:NTF851975 NTF917499:NTF917511 NTF983035:NTF983047 ODB65531:ODB65543 ODB131067:ODB131079 ODB196603:ODB196615 ODB262139:ODB262151 ODB327675:ODB327687 ODB393211:ODB393223 ODB458747:ODB458759 ODB524283:ODB524295 ODB589819:ODB589831 ODB655355:ODB655367 ODB720891:ODB720903 ODB786427:ODB786439 ODB851963:ODB851975 ODB917499:ODB917511 ODB983035:ODB983047 OMX65531:OMX65543 OMX131067:OMX131079 OMX196603:OMX196615 OMX262139:OMX262151 OMX327675:OMX327687 OMX393211:OMX393223 OMX458747:OMX458759 OMX524283:OMX524295 OMX589819:OMX589831 OMX655355:OMX655367 OMX720891:OMX720903 OMX786427:OMX786439 OMX851963:OMX851975 OMX917499:OMX917511 OMX983035:OMX983047 OWT65531:OWT65543 OWT131067:OWT131079 OWT196603:OWT196615 OWT262139:OWT262151 OWT327675:OWT327687 OWT393211:OWT393223 OWT458747:OWT458759 OWT524283:OWT524295 OWT589819:OWT589831 OWT655355:OWT655367 OWT720891:OWT720903 OWT786427:OWT786439 OWT851963:OWT851975 OWT917499:OWT917511 OWT983035:OWT983047 PGP65531:PGP65543 PGP131067:PGP131079 PGP196603:PGP196615 PGP262139:PGP262151 PGP327675:PGP327687 PGP393211:PGP393223 PGP458747:PGP458759 PGP524283:PGP524295 PGP589819:PGP589831 PGP655355:PGP655367 PGP720891:PGP720903 PGP786427:PGP786439 PGP851963:PGP851975 PGP917499:PGP917511 PGP983035:PGP983047 PQL65531:PQL65543 PQL131067:PQL131079 PQL196603:PQL196615 PQL262139:PQL262151 PQL327675:PQL327687 PQL393211:PQL393223 PQL458747:PQL458759 PQL524283:PQL524295 PQL589819:PQL589831 PQL655355:PQL655367 PQL720891:PQL720903 PQL786427:PQL786439 PQL851963:PQL851975 PQL917499:PQL917511 PQL983035:PQL983047 QAH65531:QAH65543 QAH131067:QAH131079 QAH196603:QAH196615 QAH262139:QAH262151 QAH327675:QAH327687 QAH393211:QAH393223 QAH458747:QAH458759 QAH524283:QAH524295 QAH589819:QAH589831 QAH655355:QAH655367 QAH720891:QAH720903 QAH786427:QAH786439 QAH851963:QAH851975 QAH917499:QAH917511 QAH983035:QAH983047 QKD65531:QKD65543 QKD131067:QKD131079 QKD196603:QKD196615 QKD262139:QKD262151 QKD327675:QKD327687 QKD393211:QKD393223 QKD458747:QKD458759 QKD524283:QKD524295 QKD589819:QKD589831 QKD655355:QKD655367 QKD720891:QKD720903 QKD786427:QKD786439 QKD851963:QKD851975 QKD917499:QKD917511 QKD983035:QKD983047 QTZ65531:QTZ65543 QTZ131067:QTZ131079 QTZ196603:QTZ196615 QTZ262139:QTZ262151 QTZ327675:QTZ327687 QTZ393211:QTZ393223 QTZ458747:QTZ458759 QTZ524283:QTZ524295 QTZ589819:QTZ589831 QTZ655355:QTZ655367 QTZ720891:QTZ720903 QTZ786427:QTZ786439 QTZ851963:QTZ851975 QTZ917499:QTZ917511 QTZ983035:QTZ983047 RDV65531:RDV65543 RDV131067:RDV131079 RDV196603:RDV196615 RDV262139:RDV262151 RDV327675:RDV327687 RDV393211:RDV393223 RDV458747:RDV458759 RDV524283:RDV524295 RDV589819:RDV589831 RDV655355:RDV655367 RDV720891:RDV720903 RDV786427:RDV786439 RDV851963:RDV851975 RDV917499:RDV917511 RDV983035:RDV983047 RNR65531:RNR65543 RNR131067:RNR131079 RNR196603:RNR196615 RNR262139:RNR262151 RNR327675:RNR327687 RNR393211:RNR393223 RNR458747:RNR458759 RNR524283:RNR524295 RNR589819:RNR589831 RNR655355:RNR655367 RNR720891:RNR720903 RNR786427:RNR786439 RNR851963:RNR851975 RNR917499:RNR917511 RNR983035:RNR983047 RXN65531:RXN65543 RXN131067:RXN131079 RXN196603:RXN196615 RXN262139:RXN262151 RXN327675:RXN327687 RXN393211:RXN393223 RXN458747:RXN458759 RXN524283:RXN524295 RXN589819:RXN589831 RXN655355:RXN655367 RXN720891:RXN720903 RXN786427:RXN786439 RXN851963:RXN851975 RXN917499:RXN917511 RXN983035:RXN983047 SHJ65531:SHJ65543 SHJ131067:SHJ131079 SHJ196603:SHJ196615 SHJ262139:SHJ262151 SHJ327675:SHJ327687 SHJ393211:SHJ393223 SHJ458747:SHJ458759 SHJ524283:SHJ524295 SHJ589819:SHJ589831 SHJ655355:SHJ655367 SHJ720891:SHJ720903 SHJ786427:SHJ786439 SHJ851963:SHJ851975 SHJ917499:SHJ917511 SHJ983035:SHJ983047 SRF65531:SRF65543 SRF131067:SRF131079 SRF196603:SRF196615 SRF262139:SRF262151 SRF327675:SRF327687 SRF393211:SRF393223 SRF458747:SRF458759 SRF524283:SRF524295 SRF589819:SRF589831 SRF655355:SRF655367 SRF720891:SRF720903 SRF786427:SRF786439 SRF851963:SRF851975 SRF917499:SRF917511 SRF983035:SRF983047 TBB65531:TBB65543 TBB131067:TBB131079 TBB196603:TBB196615 TBB262139:TBB262151 TBB327675:TBB327687 TBB393211:TBB393223 TBB458747:TBB458759 TBB524283:TBB524295 TBB589819:TBB589831 TBB655355:TBB655367 TBB720891:TBB720903 TBB786427:TBB786439 TBB851963:TBB851975 TBB917499:TBB917511 TBB983035:TBB983047 TKX65531:TKX65543 TKX131067:TKX131079 TKX196603:TKX196615 TKX262139:TKX262151 TKX327675:TKX327687 TKX393211:TKX393223 TKX458747:TKX458759 TKX524283:TKX524295 TKX589819:TKX589831 TKX655355:TKX655367 TKX720891:TKX720903 TKX786427:TKX786439 TKX851963:TKX851975 TKX917499:TKX917511 TKX983035:TKX983047 TUT65531:TUT65543 TUT131067:TUT131079 TUT196603:TUT196615 TUT262139:TUT262151 TUT327675:TUT327687 TUT393211:TUT393223 TUT458747:TUT458759 TUT524283:TUT524295 TUT589819:TUT589831 TUT655355:TUT655367 TUT720891:TUT720903 TUT786427:TUT786439 TUT851963:TUT851975 TUT917499:TUT917511 TUT983035:TUT983047 UEP65531:UEP65543 UEP131067:UEP131079 UEP196603:UEP196615 UEP262139:UEP262151 UEP327675:UEP327687 UEP393211:UEP393223 UEP458747:UEP458759 UEP524283:UEP524295 UEP589819:UEP589831 UEP655355:UEP655367 UEP720891:UEP720903 UEP786427:UEP786439 UEP851963:UEP851975 UEP917499:UEP917511 UEP983035:UEP983047 UOL65531:UOL65543 UOL131067:UOL131079 UOL196603:UOL196615 UOL262139:UOL262151 UOL327675:UOL327687 UOL393211:UOL393223 UOL458747:UOL458759 UOL524283:UOL524295 UOL589819:UOL589831 UOL655355:UOL655367 UOL720891:UOL720903 UOL786427:UOL786439 UOL851963:UOL851975 UOL917499:UOL917511 UOL983035:UOL983047 UYH65531:UYH65543 UYH131067:UYH131079 UYH196603:UYH196615 UYH262139:UYH262151 UYH327675:UYH327687 UYH393211:UYH393223 UYH458747:UYH458759 UYH524283:UYH524295 UYH589819:UYH589831 UYH655355:UYH655367 UYH720891:UYH720903 UYH786427:UYH786439 UYH851963:UYH851975 UYH917499:UYH917511 UYH983035:UYH983047 VID65531:VID65543 VID131067:VID131079 VID196603:VID196615 VID262139:VID262151 VID327675:VID327687 VID393211:VID393223 VID458747:VID458759 VID524283:VID524295 VID589819:VID589831 VID655355:VID655367 VID720891:VID720903 VID786427:VID786439 VID851963:VID851975 VID917499:VID917511 VID983035:VID983047 VRZ65531:VRZ65543 VRZ131067:VRZ131079 VRZ196603:VRZ196615 VRZ262139:VRZ262151 VRZ327675:VRZ327687 VRZ393211:VRZ393223 VRZ458747:VRZ458759 VRZ524283:VRZ524295 VRZ589819:VRZ589831 VRZ655355:VRZ655367 VRZ720891:VRZ720903 VRZ786427:VRZ786439 VRZ851963:VRZ851975 VRZ917499:VRZ917511 VRZ983035:VRZ983047 WBV65531:WBV65543 WBV131067:WBV131079 WBV196603:WBV196615 WBV262139:WBV262151 WBV327675:WBV327687 WBV393211:WBV393223 WBV458747:WBV458759 WBV524283:WBV524295 WBV589819:WBV589831 WBV655355:WBV655367 WBV720891:WBV720903 WBV786427:WBV786439 WBV851963:WBV851975 WBV917499:WBV917511 WBV983035:WBV983047 WLR65531:WLR65543 WLR131067:WLR131079 WLR196603:WLR196615 WLR262139:WLR262151 WLR327675:WLR327687 WLR393211:WLR393223 WLR458747:WLR458759 WLR524283:WLR524295 WLR589819:WLR589831 WLR655355:WLR655367 WLR720891:WLR720903 WLR786427:WLR786439 WLR851963:WLR851975 WLR917499:WLR917511 WLR983035:WLR983047 WVN983035:WVN983047 WVN65531:WVN65543 WVN131067:WVN131079 WVN196603:WVN196615 WVN262139:WVN262151 WVN327675:WVN327687 WVN393211:WVN393223 WVN458747:WVN458759 WVN524283:WVN524295 WVN589819:WVN589831 WVN655355:WVN655367 WVN720891:WVN720903 WVN786427:WVN786439 WVN851963:WVN851975 WVN917499:WVN917511 WVN4:WVN7 AMP4:AMP7 WLR4:WLR7 WBV4:WBV7 VRZ4:VRZ7 VID4:VID7 UYH4:UYH7 UOL4:UOL7 UEP4:UEP7 TUT4:TUT7 TKX4:TKX7 TBB4:TBB7 SRF4:SRF7 SHJ4:SHJ7 RXN4:RXN7 RNR4:RNR7 RDV4:RDV7 QTZ4:QTZ7 QKD4:QKD7 QAH4:QAH7 PQL4:PQL7 PGP4:PGP7 OWT4:OWT7 OMX4:OMX7 ODB4:ODB7 NTF4:NTF7 NJJ4:NJJ7 MZN4:MZN7 MPR4:MPR7 MFV4:MFV7 LVZ4:LVZ7 LMD4:LMD7 LCH4:LCH7 KSL4:KSL7 KIP4:KIP7 JYT4:JYT7 JOX4:JOX7 JFB4:JFB7 IVF4:IVF7 ILJ4:ILJ7 IBN4:IBN7 HRR4:HRR7 HHV4:HHV7 GXZ4:GXZ7 GOD4:GOD7 GEH4:GEH7 FUL4:FUL7 FKP4:FKP7 FAT4:FAT7 EQX4:EQX7 EHB4:EHB7 DXF4:DXF7 DNJ4:DNJ7 DDN4:DDN7 CTR4:CTR7 CJV4:CJV7 BZZ4:BZZ7 BQD4:BQD7 BGH4:BGH7 AWL4:AWL7 F4:F7 ACT4:ACT7 SX4:SX7 JB4:JB7">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576 I1:I3 WVQ1:WVQ1048576 JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 JE1:JE1048576 WVQ1:WVQ1048576 I7:I1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6222,8 +6355,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7143,7 +7276,7 @@
         <v>50</v>
       </c>
       <c r="C4" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="34" t="s">
         <v>49</v>
@@ -7152,16 +7285,16 @@
         <v>51</v>
       </c>
       <c r="F4" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G4" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>54</v>
-      </c>
       <c r="I4" s="33" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J4" s="34" t="s">
         <v>46</v>
@@ -7174,34 +7307,82 @@
       </c>
       <c r="M4" s="34"/>
     </row>
-    <row r="5" spans="1:13" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
+    <row r="5" spans="1:13" s="22" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="25">
+        <v>2</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="M5" s="25"/>
     </row>
-    <row r="6" spans="1:13" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
+    <row r="6" spans="1:13" s="22" customFormat="1" ht="82.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="25">
+        <v>3</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J6" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13" s="22" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
@@ -7240,10 +7421,10 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I5:I1048576 I1:I3 JE1:JE1048576 TA1:TA1048576 ACW1:ACW1048576 AMS1:AMS1048576 AWO1:AWO1048576 BGK1:BGK1048576 BQG1:BQG1048576 CAC1:CAC1048576 CJY1:CJY1048576 CTU1:CTU1048576 DDQ1:DDQ1048576 DNM1:DNM1048576 DXI1:DXI1048576 EHE1:EHE1048576 ERA1:ERA1048576 FAW1:FAW1048576 FKS1:FKS1048576 FUO1:FUO1048576 GEK1:GEK1048576 GOG1:GOG1048576 GYC1:GYC1048576 HHY1:HHY1048576 HRU1:HRU1048576 IBQ1:IBQ1048576 ILM1:ILM1048576 IVI1:IVI1048576 JFE1:JFE1048576 JPA1:JPA1048576 JYW1:JYW1048576 KIS1:KIS1048576 KSO1:KSO1048576 LCK1:LCK1048576 LMG1:LMG1048576 LWC1:LWC1048576 MFY1:MFY1048576 MPU1:MPU1048576 MZQ1:MZQ1048576 NJM1:NJM1048576 NTI1:NTI1048576 ODE1:ODE1048576 ONA1:ONA1048576 OWW1:OWW1048576 PGS1:PGS1048576 PQO1:PQO1048576 QAK1:QAK1048576 QKG1:QKG1048576 QUC1:QUC1048576 RDY1:RDY1048576 RNU1:RNU1048576 RXQ1:RXQ1048576 SHM1:SHM1048576 SRI1:SRI1048576 TBE1:TBE1048576 TLA1:TLA1048576 TUW1:TUW1048576 UES1:UES1048576 UOO1:UOO1048576 UYK1:UYK1048576 VIG1:VIG1048576 VSC1:VSC1048576 WBY1:WBY1048576 WLU1:WLU1048576 WVQ1:WVQ1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I3 WVQ1:WVQ1048576 WLU1:WLU1048576 WBY1:WBY1048576 VSC1:VSC1048576 VIG1:VIG1048576 UYK1:UYK1048576 UOO1:UOO1048576 UES1:UES1048576 TUW1:TUW1048576 TLA1:TLA1048576 TBE1:TBE1048576 SRI1:SRI1048576 SHM1:SHM1048576 RXQ1:RXQ1048576 RNU1:RNU1048576 RDY1:RDY1048576 QUC1:QUC1048576 QKG1:QKG1048576 QAK1:QAK1048576 PQO1:PQO1048576 PGS1:PGS1048576 OWW1:OWW1048576 ONA1:ONA1048576 ODE1:ODE1048576 NTI1:NTI1048576 NJM1:NJM1048576 MZQ1:MZQ1048576 MPU1:MPU1048576 MFY1:MFY1048576 LWC1:LWC1048576 LMG1:LMG1048576 LCK1:LCK1048576 KSO1:KSO1048576 KIS1:KIS1048576 JYW1:JYW1048576 JPA1:JPA1048576 JFE1:JFE1048576 IVI1:IVI1048576 ILM1:ILM1048576 IBQ1:IBQ1048576 HRU1:HRU1048576 HHY1:HHY1048576 GYC1:GYC1048576 GOG1:GOG1048576 GEK1:GEK1048576 FUO1:FUO1048576 FKS1:FKS1048576 FAW1:FAW1048576 ERA1:ERA1048576 EHE1:EHE1048576 DXI1:DXI1048576 DNM1:DNM1048576 DDQ1:DDQ1048576 CTU1:CTU1048576 CJY1:CJY1048576 CAC1:CAC1048576 BQG1:BQG1048576 BGK1:BGK1048576 AWO1:AWO1048576 AMS1:AMS1048576 ACW1:ACW1048576 TA1:TA1048576 JE1:JE1048576 I7:I1048576">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65532:F65544 F131068:F131080 F196604:F196616 F262140:F262152 F327676:F327688 F393212:F393224 F458748:F458760 F524284:F524296 F589820:F589832 F655356:F655368 F720892:F720904 F786428:F786440 F851964:F851976 F917500:F917512 F983036:F983048 JB65532:JB65544 JB131068:JB131080 JB196604:JB196616 JB262140:JB262152 JB327676:JB327688 JB393212:JB393224 JB458748:JB458760 JB524284:JB524296 JB589820:JB589832 JB655356:JB655368 JB720892:JB720904 JB786428:JB786440 JB851964:JB851976 JB917500:JB917512 JB983036:JB983048 SX65532:SX65544 SX131068:SX131080 SX196604:SX196616 SX262140:SX262152 SX327676:SX327688 SX393212:SX393224 SX458748:SX458760 SX524284:SX524296 SX589820:SX589832 SX655356:SX655368 SX720892:SX720904 SX786428:SX786440 SX851964:SX851976 SX917500:SX917512 SX983036:SX983048 ACT65532:ACT65544 ACT131068:ACT131080 ACT196604:ACT196616 ACT262140:ACT262152 ACT327676:ACT327688 ACT393212:ACT393224 ACT458748:ACT458760 ACT524284:ACT524296 ACT589820:ACT589832 ACT655356:ACT655368 ACT720892:ACT720904 ACT786428:ACT786440 ACT851964:ACT851976 ACT917500:ACT917512 ACT983036:ACT983048 AMP65532:AMP65544 AMP131068:AMP131080 AMP196604:AMP196616 AMP262140:AMP262152 AMP327676:AMP327688 AMP393212:AMP393224 AMP458748:AMP458760 AMP524284:AMP524296 AMP589820:AMP589832 AMP655356:AMP655368 AMP720892:AMP720904 AMP786428:AMP786440 AMP851964:AMP851976 AMP917500:AMP917512 AMP983036:AMP983048 AWL65532:AWL65544 AWL131068:AWL131080 AWL196604:AWL196616 AWL262140:AWL262152 AWL327676:AWL327688 AWL393212:AWL393224 AWL458748:AWL458760 AWL524284:AWL524296 AWL589820:AWL589832 AWL655356:AWL655368 AWL720892:AWL720904 AWL786428:AWL786440 AWL851964:AWL851976 AWL917500:AWL917512 AWL983036:AWL983048 BGH65532:BGH65544 BGH131068:BGH131080 BGH196604:BGH196616 BGH262140:BGH262152 BGH327676:BGH327688 BGH393212:BGH393224 BGH458748:BGH458760 BGH524284:BGH524296 BGH589820:BGH589832 BGH655356:BGH655368 BGH720892:BGH720904 BGH786428:BGH786440 BGH851964:BGH851976 BGH917500:BGH917512 BGH983036:BGH983048 BQD65532:BQD65544 BQD131068:BQD131080 BQD196604:BQD196616 BQD262140:BQD262152 BQD327676:BQD327688 BQD393212:BQD393224 BQD458748:BQD458760 BQD524284:BQD524296 BQD589820:BQD589832 BQD655356:BQD655368 BQD720892:BQD720904 BQD786428:BQD786440 BQD851964:BQD851976 BQD917500:BQD917512 BQD983036:BQD983048 BZZ65532:BZZ65544 BZZ131068:BZZ131080 BZZ196604:BZZ196616 BZZ262140:BZZ262152 BZZ327676:BZZ327688 BZZ393212:BZZ393224 BZZ458748:BZZ458760 BZZ524284:BZZ524296 BZZ589820:BZZ589832 BZZ655356:BZZ655368 BZZ720892:BZZ720904 BZZ786428:BZZ786440 BZZ851964:BZZ851976 BZZ917500:BZZ917512 BZZ983036:BZZ983048 CJV65532:CJV65544 CJV131068:CJV131080 CJV196604:CJV196616 CJV262140:CJV262152 CJV327676:CJV327688 CJV393212:CJV393224 CJV458748:CJV458760 CJV524284:CJV524296 CJV589820:CJV589832 CJV655356:CJV655368 CJV720892:CJV720904 CJV786428:CJV786440 CJV851964:CJV851976 CJV917500:CJV917512 CJV983036:CJV983048 CTR65532:CTR65544 CTR131068:CTR131080 CTR196604:CTR196616 CTR262140:CTR262152 CTR327676:CTR327688 CTR393212:CTR393224 CTR458748:CTR458760 CTR524284:CTR524296 CTR589820:CTR589832 CTR655356:CTR655368 CTR720892:CTR720904 CTR786428:CTR786440 CTR851964:CTR851976 CTR917500:CTR917512 CTR983036:CTR983048 DDN65532:DDN65544 DDN131068:DDN131080 DDN196604:DDN196616 DDN262140:DDN262152 DDN327676:DDN327688 DDN393212:DDN393224 DDN458748:DDN458760 DDN524284:DDN524296 DDN589820:DDN589832 DDN655356:DDN655368 DDN720892:DDN720904 DDN786428:DDN786440 DDN851964:DDN851976 DDN917500:DDN917512 DDN983036:DDN983048 DNJ65532:DNJ65544 DNJ131068:DNJ131080 DNJ196604:DNJ196616 DNJ262140:DNJ262152 DNJ327676:DNJ327688 DNJ393212:DNJ393224 DNJ458748:DNJ458760 DNJ524284:DNJ524296 DNJ589820:DNJ589832 DNJ655356:DNJ655368 DNJ720892:DNJ720904 DNJ786428:DNJ786440 DNJ851964:DNJ851976 DNJ917500:DNJ917512 DNJ983036:DNJ983048 DXF65532:DXF65544 DXF131068:DXF131080 DXF196604:DXF196616 DXF262140:DXF262152 DXF327676:DXF327688 DXF393212:DXF393224 DXF458748:DXF458760 DXF524284:DXF524296 DXF589820:DXF589832 DXF655356:DXF655368 DXF720892:DXF720904 DXF786428:DXF786440 DXF851964:DXF851976 DXF917500:DXF917512 DXF983036:DXF983048 EHB65532:EHB65544 EHB131068:EHB131080 EHB196604:EHB196616 EHB262140:EHB262152 EHB327676:EHB327688 EHB393212:EHB393224 EHB458748:EHB458760 EHB524284:EHB524296 EHB589820:EHB589832 EHB655356:EHB655368 EHB720892:EHB720904 EHB786428:EHB786440 EHB851964:EHB851976 EHB917500:EHB917512 EHB983036:EHB983048 EQX65532:EQX65544 EQX131068:EQX131080 EQX196604:EQX196616 EQX262140:EQX262152 EQX327676:EQX327688 EQX393212:EQX393224 EQX458748:EQX458760 EQX524284:EQX524296 EQX589820:EQX589832 EQX655356:EQX655368 EQX720892:EQX720904 EQX786428:EQX786440 EQX851964:EQX851976 EQX917500:EQX917512 EQX983036:EQX983048 FAT65532:FAT65544 FAT131068:FAT131080 FAT196604:FAT196616 FAT262140:FAT262152 FAT327676:FAT327688 FAT393212:FAT393224 FAT458748:FAT458760 FAT524284:FAT524296 FAT589820:FAT589832 FAT655356:FAT655368 FAT720892:FAT720904 FAT786428:FAT786440 FAT851964:FAT851976 FAT917500:FAT917512 FAT983036:FAT983048 FKP65532:FKP65544 FKP131068:FKP131080 FKP196604:FKP196616 FKP262140:FKP262152 FKP327676:FKP327688 FKP393212:FKP393224 FKP458748:FKP458760 FKP524284:FKP524296 FKP589820:FKP589832 FKP655356:FKP655368 FKP720892:FKP720904 FKP786428:FKP786440 FKP851964:FKP851976 FKP917500:FKP917512 FKP983036:FKP983048 FUL65532:FUL65544 FUL131068:FUL131080 FUL196604:FUL196616 FUL262140:FUL262152 FUL327676:FUL327688 FUL393212:FUL393224 FUL458748:FUL458760 FUL524284:FUL524296 FUL589820:FUL589832 FUL655356:FUL655368 FUL720892:FUL720904 FUL786428:FUL786440 FUL851964:FUL851976 FUL917500:FUL917512 FUL983036:FUL983048 GEH65532:GEH65544 GEH131068:GEH131080 GEH196604:GEH196616 GEH262140:GEH262152 GEH327676:GEH327688 GEH393212:GEH393224 GEH458748:GEH458760 GEH524284:GEH524296 GEH589820:GEH589832 GEH655356:GEH655368 GEH720892:GEH720904 GEH786428:GEH786440 GEH851964:GEH851976 GEH917500:GEH917512 GEH983036:GEH983048 GOD65532:GOD65544 GOD131068:GOD131080 GOD196604:GOD196616 GOD262140:GOD262152 GOD327676:GOD327688 GOD393212:GOD393224 GOD458748:GOD458760 GOD524284:GOD524296 GOD589820:GOD589832 GOD655356:GOD655368 GOD720892:GOD720904 GOD786428:GOD786440 GOD851964:GOD851976 GOD917500:GOD917512 GOD983036:GOD983048 GXZ65532:GXZ65544 GXZ131068:GXZ131080 GXZ196604:GXZ196616 GXZ262140:GXZ262152 GXZ327676:GXZ327688 GXZ393212:GXZ393224 GXZ458748:GXZ458760 GXZ524284:GXZ524296 GXZ589820:GXZ589832 GXZ655356:GXZ655368 GXZ720892:GXZ720904 GXZ786428:GXZ786440 GXZ851964:GXZ851976 GXZ917500:GXZ917512 GXZ983036:GXZ983048 HHV65532:HHV65544 HHV131068:HHV131080 HHV196604:HHV196616 HHV262140:HHV262152 HHV327676:HHV327688 HHV393212:HHV393224 HHV458748:HHV458760 HHV524284:HHV524296 HHV589820:HHV589832 HHV655356:HHV655368 HHV720892:HHV720904 HHV786428:HHV786440 HHV851964:HHV851976 HHV917500:HHV917512 HHV983036:HHV983048 HRR65532:HRR65544 HRR131068:HRR131080 HRR196604:HRR196616 HRR262140:HRR262152 HRR327676:HRR327688 HRR393212:HRR393224 HRR458748:HRR458760 HRR524284:HRR524296 HRR589820:HRR589832 HRR655356:HRR655368 HRR720892:HRR720904 HRR786428:HRR786440 HRR851964:HRR851976 HRR917500:HRR917512 HRR983036:HRR983048 IBN65532:IBN65544 IBN131068:IBN131080 IBN196604:IBN196616 IBN262140:IBN262152 IBN327676:IBN327688 IBN393212:IBN393224 IBN458748:IBN458760 IBN524284:IBN524296 IBN589820:IBN589832 IBN655356:IBN655368 IBN720892:IBN720904 IBN786428:IBN786440 IBN851964:IBN851976 IBN917500:IBN917512 IBN983036:IBN983048 ILJ65532:ILJ65544 ILJ131068:ILJ131080 ILJ196604:ILJ196616 ILJ262140:ILJ262152 ILJ327676:ILJ327688 ILJ393212:ILJ393224 ILJ458748:ILJ458760 ILJ524284:ILJ524296 ILJ589820:ILJ589832 ILJ655356:ILJ655368 ILJ720892:ILJ720904 ILJ786428:ILJ786440 ILJ851964:ILJ851976 ILJ917500:ILJ917512 ILJ983036:ILJ983048 IVF65532:IVF65544 IVF131068:IVF131080 IVF196604:IVF196616 IVF262140:IVF262152 IVF327676:IVF327688 IVF393212:IVF393224 IVF458748:IVF458760 IVF524284:IVF524296 IVF589820:IVF589832 IVF655356:IVF655368 IVF720892:IVF720904 IVF786428:IVF786440 IVF851964:IVF851976 IVF917500:IVF917512 IVF983036:IVF983048 JFB65532:JFB65544 JFB131068:JFB131080 JFB196604:JFB196616 JFB262140:JFB262152 JFB327676:JFB327688 JFB393212:JFB393224 JFB458748:JFB458760 JFB524284:JFB524296 JFB589820:JFB589832 JFB655356:JFB655368 JFB720892:JFB720904 JFB786428:JFB786440 JFB851964:JFB851976 JFB917500:JFB917512 JFB983036:JFB983048 JOX65532:JOX65544 JOX131068:JOX131080 JOX196604:JOX196616 JOX262140:JOX262152 JOX327676:JOX327688 JOX393212:JOX393224 JOX458748:JOX458760 JOX524284:JOX524296 JOX589820:JOX589832 JOX655356:JOX655368 JOX720892:JOX720904 JOX786428:JOX786440 JOX851964:JOX851976 JOX917500:JOX917512 JOX983036:JOX983048 JYT65532:JYT65544 JYT131068:JYT131080 JYT196604:JYT196616 JYT262140:JYT262152 JYT327676:JYT327688 JYT393212:JYT393224 JYT458748:JYT458760 JYT524284:JYT524296 JYT589820:JYT589832 JYT655356:JYT655368 JYT720892:JYT720904 JYT786428:JYT786440 JYT851964:JYT851976 JYT917500:JYT917512 JYT983036:JYT983048 KIP65532:KIP65544 KIP131068:KIP131080 KIP196604:KIP196616 KIP262140:KIP262152 KIP327676:KIP327688 KIP393212:KIP393224 KIP458748:KIP458760 KIP524284:KIP524296 KIP589820:KIP589832 KIP655356:KIP655368 KIP720892:KIP720904 KIP786428:KIP786440 KIP851964:KIP851976 KIP917500:KIP917512 KIP983036:KIP983048 KSL65532:KSL65544 KSL131068:KSL131080 KSL196604:KSL196616 KSL262140:KSL262152 KSL327676:KSL327688 KSL393212:KSL393224 KSL458748:KSL458760 KSL524284:KSL524296 KSL589820:KSL589832 KSL655356:KSL655368 KSL720892:KSL720904 KSL786428:KSL786440 KSL851964:KSL851976 KSL917500:KSL917512 KSL983036:KSL983048 LCH65532:LCH65544 LCH131068:LCH131080 LCH196604:LCH196616 LCH262140:LCH262152 LCH327676:LCH327688 LCH393212:LCH393224 LCH458748:LCH458760 LCH524284:LCH524296 LCH589820:LCH589832 LCH655356:LCH655368 LCH720892:LCH720904 LCH786428:LCH786440 LCH851964:LCH851976 LCH917500:LCH917512 LCH983036:LCH983048 LMD65532:LMD65544 LMD131068:LMD131080 LMD196604:LMD196616 LMD262140:LMD262152 LMD327676:LMD327688 LMD393212:LMD393224 LMD458748:LMD458760 LMD524284:LMD524296 LMD589820:LMD589832 LMD655356:LMD655368 LMD720892:LMD720904 LMD786428:LMD786440 LMD851964:LMD851976 LMD917500:LMD917512 LMD983036:LMD983048 LVZ65532:LVZ65544 LVZ131068:LVZ131080 LVZ196604:LVZ196616 LVZ262140:LVZ262152 LVZ327676:LVZ327688 LVZ393212:LVZ393224 LVZ458748:LVZ458760 LVZ524284:LVZ524296 LVZ589820:LVZ589832 LVZ655356:LVZ655368 LVZ720892:LVZ720904 LVZ786428:LVZ786440 LVZ851964:LVZ851976 LVZ917500:LVZ917512 LVZ983036:LVZ983048 MFV65532:MFV65544 MFV131068:MFV131080 MFV196604:MFV196616 MFV262140:MFV262152 MFV327676:MFV327688 MFV393212:MFV393224 MFV458748:MFV458760 MFV524284:MFV524296 MFV589820:MFV589832 MFV655356:MFV655368 MFV720892:MFV720904 MFV786428:MFV786440 MFV851964:MFV851976 MFV917500:MFV917512 MFV983036:MFV983048 MPR65532:MPR65544 MPR131068:MPR131080 MPR196604:MPR196616 MPR262140:MPR262152 MPR327676:MPR327688 MPR393212:MPR393224 MPR458748:MPR458760 MPR524284:MPR524296 MPR589820:MPR589832 MPR655356:MPR655368 MPR720892:MPR720904 MPR786428:MPR786440 MPR851964:MPR851976 MPR917500:MPR917512 MPR983036:MPR983048 MZN65532:MZN65544 MZN131068:MZN131080 MZN196604:MZN196616 MZN262140:MZN262152 MZN327676:MZN327688 MZN393212:MZN393224 MZN458748:MZN458760 MZN524284:MZN524296 MZN589820:MZN589832 MZN655356:MZN655368 MZN720892:MZN720904 MZN786428:MZN786440 MZN851964:MZN851976 MZN917500:MZN917512 MZN983036:MZN983048 NJJ65532:NJJ65544 NJJ131068:NJJ131080 NJJ196604:NJJ196616 NJJ262140:NJJ262152 NJJ327676:NJJ327688 NJJ393212:NJJ393224 NJJ458748:NJJ458760 NJJ524284:NJJ524296 NJJ589820:NJJ589832 NJJ655356:NJJ655368 NJJ720892:NJJ720904 NJJ786428:NJJ786440 NJJ851964:NJJ851976 NJJ917500:NJJ917512 NJJ983036:NJJ983048 NTF65532:NTF65544 NTF131068:NTF131080 NTF196604:NTF196616 NTF262140:NTF262152 NTF327676:NTF327688 NTF393212:NTF393224 NTF458748:NTF458760 NTF524284:NTF524296 NTF589820:NTF589832 NTF655356:NTF655368 NTF720892:NTF720904 NTF786428:NTF786440 NTF851964:NTF851976 NTF917500:NTF917512 NTF983036:NTF983048 ODB65532:ODB65544 ODB131068:ODB131080 ODB196604:ODB196616 ODB262140:ODB262152 ODB327676:ODB327688 ODB393212:ODB393224 ODB458748:ODB458760 ODB524284:ODB524296 ODB589820:ODB589832 ODB655356:ODB655368 ODB720892:ODB720904 ODB786428:ODB786440 ODB851964:ODB851976 ODB917500:ODB917512 ODB983036:ODB983048 OMX65532:OMX65544 OMX131068:OMX131080 OMX196604:OMX196616 OMX262140:OMX262152 OMX327676:OMX327688 OMX393212:OMX393224 OMX458748:OMX458760 OMX524284:OMX524296 OMX589820:OMX589832 OMX655356:OMX655368 OMX720892:OMX720904 OMX786428:OMX786440 OMX851964:OMX851976 OMX917500:OMX917512 OMX983036:OMX983048 OWT65532:OWT65544 OWT131068:OWT131080 OWT196604:OWT196616 OWT262140:OWT262152 OWT327676:OWT327688 OWT393212:OWT393224 OWT458748:OWT458760 OWT524284:OWT524296 OWT589820:OWT589832 OWT655356:OWT655368 OWT720892:OWT720904 OWT786428:OWT786440 OWT851964:OWT851976 OWT917500:OWT917512 OWT983036:OWT983048 PGP65532:PGP65544 PGP131068:PGP131080 PGP196604:PGP196616 PGP262140:PGP262152 PGP327676:PGP327688 PGP393212:PGP393224 PGP458748:PGP458760 PGP524284:PGP524296 PGP589820:PGP589832 PGP655356:PGP655368 PGP720892:PGP720904 PGP786428:PGP786440 PGP851964:PGP851976 PGP917500:PGP917512 PGP983036:PGP983048 PQL65532:PQL65544 PQL131068:PQL131080 PQL196604:PQL196616 PQL262140:PQL262152 PQL327676:PQL327688 PQL393212:PQL393224 PQL458748:PQL458760 PQL524284:PQL524296 PQL589820:PQL589832 PQL655356:PQL655368 PQL720892:PQL720904 PQL786428:PQL786440 PQL851964:PQL851976 PQL917500:PQL917512 PQL983036:PQL983048 QAH65532:QAH65544 QAH131068:QAH131080 QAH196604:QAH196616 QAH262140:QAH262152 QAH327676:QAH327688 QAH393212:QAH393224 QAH458748:QAH458760 QAH524284:QAH524296 QAH589820:QAH589832 QAH655356:QAH655368 QAH720892:QAH720904 QAH786428:QAH786440 QAH851964:QAH851976 QAH917500:QAH917512 QAH983036:QAH983048 QKD65532:QKD65544 QKD131068:QKD131080 QKD196604:QKD196616 QKD262140:QKD262152 QKD327676:QKD327688 QKD393212:QKD393224 QKD458748:QKD458760 QKD524284:QKD524296 QKD589820:QKD589832 QKD655356:QKD655368 QKD720892:QKD720904 QKD786428:QKD786440 QKD851964:QKD851976 QKD917500:QKD917512 QKD983036:QKD983048 QTZ65532:QTZ65544 QTZ131068:QTZ131080 QTZ196604:QTZ196616 QTZ262140:QTZ262152 QTZ327676:QTZ327688 QTZ393212:QTZ393224 QTZ458748:QTZ458760 QTZ524284:QTZ524296 QTZ589820:QTZ589832 QTZ655356:QTZ655368 QTZ720892:QTZ720904 QTZ786428:QTZ786440 QTZ851964:QTZ851976 QTZ917500:QTZ917512 QTZ983036:QTZ983048 RDV65532:RDV65544 RDV131068:RDV131080 RDV196604:RDV196616 RDV262140:RDV262152 RDV327676:RDV327688 RDV393212:RDV393224 RDV458748:RDV458760 RDV524284:RDV524296 RDV589820:RDV589832 RDV655356:RDV655368 RDV720892:RDV720904 RDV786428:RDV786440 RDV851964:RDV851976 RDV917500:RDV917512 RDV983036:RDV983048 RNR65532:RNR65544 RNR131068:RNR131080 RNR196604:RNR196616 RNR262140:RNR262152 RNR327676:RNR327688 RNR393212:RNR393224 RNR458748:RNR458760 RNR524284:RNR524296 RNR589820:RNR589832 RNR655356:RNR655368 RNR720892:RNR720904 RNR786428:RNR786440 RNR851964:RNR851976 RNR917500:RNR917512 RNR983036:RNR983048 RXN65532:RXN65544 RXN131068:RXN131080 RXN196604:RXN196616 RXN262140:RXN262152 RXN327676:RXN327688 RXN393212:RXN393224 RXN458748:RXN458760 RXN524284:RXN524296 RXN589820:RXN589832 RXN655356:RXN655368 RXN720892:RXN720904 RXN786428:RXN786440 RXN851964:RXN851976 RXN917500:RXN917512 RXN983036:RXN983048 SHJ65532:SHJ65544 SHJ131068:SHJ131080 SHJ196604:SHJ196616 SHJ262140:SHJ262152 SHJ327676:SHJ327688 SHJ393212:SHJ393224 SHJ458748:SHJ458760 SHJ524284:SHJ524296 SHJ589820:SHJ589832 SHJ655356:SHJ655368 SHJ720892:SHJ720904 SHJ786428:SHJ786440 SHJ851964:SHJ851976 SHJ917500:SHJ917512 SHJ983036:SHJ983048 SRF65532:SRF65544 SRF131068:SRF131080 SRF196604:SRF196616 SRF262140:SRF262152 SRF327676:SRF327688 SRF393212:SRF393224 SRF458748:SRF458760 SRF524284:SRF524296 SRF589820:SRF589832 SRF655356:SRF655368 SRF720892:SRF720904 SRF786428:SRF786440 SRF851964:SRF851976 SRF917500:SRF917512 SRF983036:SRF983048 TBB65532:TBB65544 TBB131068:TBB131080 TBB196604:TBB196616 TBB262140:TBB262152 TBB327676:TBB327688 TBB393212:TBB393224 TBB458748:TBB458760 TBB524284:TBB524296 TBB589820:TBB589832 TBB655356:TBB655368 TBB720892:TBB720904 TBB786428:TBB786440 TBB851964:TBB851976 TBB917500:TBB917512 TBB983036:TBB983048 TKX65532:TKX65544 TKX131068:TKX131080 TKX196604:TKX196616 TKX262140:TKX262152 TKX327676:TKX327688 TKX393212:TKX393224 TKX458748:TKX458760 TKX524284:TKX524296 TKX589820:TKX589832 TKX655356:TKX655368 TKX720892:TKX720904 TKX786428:TKX786440 TKX851964:TKX851976 TKX917500:TKX917512 TKX983036:TKX983048 TUT65532:TUT65544 TUT131068:TUT131080 TUT196604:TUT196616 TUT262140:TUT262152 TUT327676:TUT327688 TUT393212:TUT393224 TUT458748:TUT458760 TUT524284:TUT524296 TUT589820:TUT589832 TUT655356:TUT655368 TUT720892:TUT720904 TUT786428:TUT786440 TUT851964:TUT851976 TUT917500:TUT917512 TUT983036:TUT983048 UEP65532:UEP65544 UEP131068:UEP131080 UEP196604:UEP196616 UEP262140:UEP262152 UEP327676:UEP327688 UEP393212:UEP393224 UEP458748:UEP458760 UEP524284:UEP524296 UEP589820:UEP589832 UEP655356:UEP655368 UEP720892:UEP720904 UEP786428:UEP786440 UEP851964:UEP851976 UEP917500:UEP917512 UEP983036:UEP983048 UOL65532:UOL65544 UOL131068:UOL131080 UOL196604:UOL196616 UOL262140:UOL262152 UOL327676:UOL327688 UOL393212:UOL393224 UOL458748:UOL458760 UOL524284:UOL524296 UOL589820:UOL589832 UOL655356:UOL655368 UOL720892:UOL720904 UOL786428:UOL786440 UOL851964:UOL851976 UOL917500:UOL917512 UOL983036:UOL983048 UYH65532:UYH65544 UYH131068:UYH131080 UYH196604:UYH196616 UYH262140:UYH262152 UYH327676:UYH327688 UYH393212:UYH393224 UYH458748:UYH458760 UYH524284:UYH524296 UYH589820:UYH589832 UYH655356:UYH655368 UYH720892:UYH720904 UYH786428:UYH786440 UYH851964:UYH851976 UYH917500:UYH917512 UYH983036:UYH983048 VID65532:VID65544 VID131068:VID131080 VID196604:VID196616 VID262140:VID262152 VID327676:VID327688 VID393212:VID393224 VID458748:VID458760 VID524284:VID524296 VID589820:VID589832 VID655356:VID655368 VID720892:VID720904 VID786428:VID786440 VID851964:VID851976 VID917500:VID917512 VID983036:VID983048 VRZ65532:VRZ65544 VRZ131068:VRZ131080 VRZ196604:VRZ196616 VRZ262140:VRZ262152 VRZ327676:VRZ327688 VRZ393212:VRZ393224 VRZ458748:VRZ458760 VRZ524284:VRZ524296 VRZ589820:VRZ589832 VRZ655356:VRZ655368 VRZ720892:VRZ720904 VRZ786428:VRZ786440 VRZ851964:VRZ851976 VRZ917500:VRZ917512 VRZ983036:VRZ983048 WBV65532:WBV65544 WBV131068:WBV131080 WBV196604:WBV196616 WBV262140:WBV262152 WBV327676:WBV327688 WBV393212:WBV393224 WBV458748:WBV458760 WBV524284:WBV524296 WBV589820:WBV589832 WBV655356:WBV655368 WBV720892:WBV720904 WBV786428:WBV786440 WBV851964:WBV851976 WBV917500:WBV917512 WBV983036:WBV983048 WLR65532:WLR65544 WLR131068:WLR131080 WLR196604:WLR196616 WLR262140:WLR262152 WLR327676:WLR327688 WLR393212:WLR393224 WLR458748:WLR458760 WLR524284:WLR524296 WLR589820:WLR589832 WLR655356:WLR655368 WLR720892:WLR720904 WLR786428:WLR786440 WLR851964:WLR851976 WLR917500:WLR917512 WLR983036:WLR983048 WVN983036:WVN983048 WVN65532:WVN65544 WVN131068:WVN131080 WVN196604:WVN196616 WVN262140:WVN262152 WVN327676:WVN327688 WVN393212:WVN393224 WVN458748:WVN458760 WVN524284:WVN524296 WVN589820:WVN589832 WVN655356:WVN655368 WVN720892:WVN720904 WVN786428:WVN786440 WVN851964:WVN851976 WVN917500:WVN917512 ACT4:ACT8 AMP4:AMP8 AWL4:AWL8 BGH4:BGH8 BQD4:BQD8 BZZ4:BZZ8 CJV4:CJV8 CTR4:CTR8 DDN4:DDN8 DNJ4:DNJ8 DXF4:DXF8 EHB4:EHB8 EQX4:EQX8 FAT4:FAT8 FKP4:FKP8 FUL4:FUL8 GEH4:GEH8 GOD4:GOD8 GXZ4:GXZ8 HHV4:HHV8 HRR4:HRR8 IBN4:IBN8 ILJ4:ILJ8 IVF4:IVF8 JFB4:JFB8 JOX4:JOX8 JYT4:JYT8 KIP4:KIP8 KSL4:KSL8 LCH4:LCH8 LMD4:LMD8 LVZ4:LVZ8 MFV4:MFV8 MPR4:MPR8 MZN4:MZN8 NJJ4:NJJ8 NTF4:NTF8 ODB4:ODB8 OMX4:OMX8 OWT4:OWT8 PGP4:PGP8 PQL4:PQL8 QAH4:QAH8 QKD4:QKD8 QTZ4:QTZ8 RDV4:RDV8 RNR4:RNR8 RXN4:RXN8 SHJ4:SHJ8 SRF4:SRF8 TBB4:TBB8 TKX4:TKX8 TUT4:TUT8 UEP4:UEP8 UOL4:UOL8 UYH4:UYH8 VID4:VID8 VRZ4:VRZ8 WBV4:WBV8 WLR4:WLR8 WVN4:WVN8 F4:F8 JB4:JB8 SX4:SX8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F65532:F65544 F131068:F131080 F196604:F196616 F262140:F262152 F327676:F327688 F393212:F393224 F458748:F458760 F524284:F524296 F589820:F589832 F655356:F655368 F720892:F720904 F786428:F786440 F851964:F851976 F917500:F917512 F983036:F983048 JB65532:JB65544 JB131068:JB131080 JB196604:JB196616 JB262140:JB262152 JB327676:JB327688 JB393212:JB393224 JB458748:JB458760 JB524284:JB524296 JB589820:JB589832 JB655356:JB655368 JB720892:JB720904 JB786428:JB786440 JB851964:JB851976 JB917500:JB917512 JB983036:JB983048 SX65532:SX65544 SX131068:SX131080 SX196604:SX196616 SX262140:SX262152 SX327676:SX327688 SX393212:SX393224 SX458748:SX458760 SX524284:SX524296 SX589820:SX589832 SX655356:SX655368 SX720892:SX720904 SX786428:SX786440 SX851964:SX851976 SX917500:SX917512 SX983036:SX983048 ACT65532:ACT65544 ACT131068:ACT131080 ACT196604:ACT196616 ACT262140:ACT262152 ACT327676:ACT327688 ACT393212:ACT393224 ACT458748:ACT458760 ACT524284:ACT524296 ACT589820:ACT589832 ACT655356:ACT655368 ACT720892:ACT720904 ACT786428:ACT786440 ACT851964:ACT851976 ACT917500:ACT917512 ACT983036:ACT983048 AMP65532:AMP65544 AMP131068:AMP131080 AMP196604:AMP196616 AMP262140:AMP262152 AMP327676:AMP327688 AMP393212:AMP393224 AMP458748:AMP458760 AMP524284:AMP524296 AMP589820:AMP589832 AMP655356:AMP655368 AMP720892:AMP720904 AMP786428:AMP786440 AMP851964:AMP851976 AMP917500:AMP917512 AMP983036:AMP983048 AWL65532:AWL65544 AWL131068:AWL131080 AWL196604:AWL196616 AWL262140:AWL262152 AWL327676:AWL327688 AWL393212:AWL393224 AWL458748:AWL458760 AWL524284:AWL524296 AWL589820:AWL589832 AWL655356:AWL655368 AWL720892:AWL720904 AWL786428:AWL786440 AWL851964:AWL851976 AWL917500:AWL917512 AWL983036:AWL983048 BGH65532:BGH65544 BGH131068:BGH131080 BGH196604:BGH196616 BGH262140:BGH262152 BGH327676:BGH327688 BGH393212:BGH393224 BGH458748:BGH458760 BGH524284:BGH524296 BGH589820:BGH589832 BGH655356:BGH655368 BGH720892:BGH720904 BGH786428:BGH786440 BGH851964:BGH851976 BGH917500:BGH917512 BGH983036:BGH983048 BQD65532:BQD65544 BQD131068:BQD131080 BQD196604:BQD196616 BQD262140:BQD262152 BQD327676:BQD327688 BQD393212:BQD393224 BQD458748:BQD458760 BQD524284:BQD524296 BQD589820:BQD589832 BQD655356:BQD655368 BQD720892:BQD720904 BQD786428:BQD786440 BQD851964:BQD851976 BQD917500:BQD917512 BQD983036:BQD983048 BZZ65532:BZZ65544 BZZ131068:BZZ131080 BZZ196604:BZZ196616 BZZ262140:BZZ262152 BZZ327676:BZZ327688 BZZ393212:BZZ393224 BZZ458748:BZZ458760 BZZ524284:BZZ524296 BZZ589820:BZZ589832 BZZ655356:BZZ655368 BZZ720892:BZZ720904 BZZ786428:BZZ786440 BZZ851964:BZZ851976 BZZ917500:BZZ917512 BZZ983036:BZZ983048 CJV65532:CJV65544 CJV131068:CJV131080 CJV196604:CJV196616 CJV262140:CJV262152 CJV327676:CJV327688 CJV393212:CJV393224 CJV458748:CJV458760 CJV524284:CJV524296 CJV589820:CJV589832 CJV655356:CJV655368 CJV720892:CJV720904 CJV786428:CJV786440 CJV851964:CJV851976 CJV917500:CJV917512 CJV983036:CJV983048 CTR65532:CTR65544 CTR131068:CTR131080 CTR196604:CTR196616 CTR262140:CTR262152 CTR327676:CTR327688 CTR393212:CTR393224 CTR458748:CTR458760 CTR524284:CTR524296 CTR589820:CTR589832 CTR655356:CTR655368 CTR720892:CTR720904 CTR786428:CTR786440 CTR851964:CTR851976 CTR917500:CTR917512 CTR983036:CTR983048 DDN65532:DDN65544 DDN131068:DDN131080 DDN196604:DDN196616 DDN262140:DDN262152 DDN327676:DDN327688 DDN393212:DDN393224 DDN458748:DDN458760 DDN524284:DDN524296 DDN589820:DDN589832 DDN655356:DDN655368 DDN720892:DDN720904 DDN786428:DDN786440 DDN851964:DDN851976 DDN917500:DDN917512 DDN983036:DDN983048 DNJ65532:DNJ65544 DNJ131068:DNJ131080 DNJ196604:DNJ196616 DNJ262140:DNJ262152 DNJ327676:DNJ327688 DNJ393212:DNJ393224 DNJ458748:DNJ458760 DNJ524284:DNJ524296 DNJ589820:DNJ589832 DNJ655356:DNJ655368 DNJ720892:DNJ720904 DNJ786428:DNJ786440 DNJ851964:DNJ851976 DNJ917500:DNJ917512 DNJ983036:DNJ983048 DXF65532:DXF65544 DXF131068:DXF131080 DXF196604:DXF196616 DXF262140:DXF262152 DXF327676:DXF327688 DXF393212:DXF393224 DXF458748:DXF458760 DXF524284:DXF524296 DXF589820:DXF589832 DXF655356:DXF655368 DXF720892:DXF720904 DXF786428:DXF786440 DXF851964:DXF851976 DXF917500:DXF917512 DXF983036:DXF983048 EHB65532:EHB65544 EHB131068:EHB131080 EHB196604:EHB196616 EHB262140:EHB262152 EHB327676:EHB327688 EHB393212:EHB393224 EHB458748:EHB458760 EHB524284:EHB524296 EHB589820:EHB589832 EHB655356:EHB655368 EHB720892:EHB720904 EHB786428:EHB786440 EHB851964:EHB851976 EHB917500:EHB917512 EHB983036:EHB983048 EQX65532:EQX65544 EQX131068:EQX131080 EQX196604:EQX196616 EQX262140:EQX262152 EQX327676:EQX327688 EQX393212:EQX393224 EQX458748:EQX458760 EQX524284:EQX524296 EQX589820:EQX589832 EQX655356:EQX655368 EQX720892:EQX720904 EQX786428:EQX786440 EQX851964:EQX851976 EQX917500:EQX917512 EQX983036:EQX983048 FAT65532:FAT65544 FAT131068:FAT131080 FAT196604:FAT196616 FAT262140:FAT262152 FAT327676:FAT327688 FAT393212:FAT393224 FAT458748:FAT458760 FAT524284:FAT524296 FAT589820:FAT589832 FAT655356:FAT655368 FAT720892:FAT720904 FAT786428:FAT786440 FAT851964:FAT851976 FAT917500:FAT917512 FAT983036:FAT983048 FKP65532:FKP65544 FKP131068:FKP131080 FKP196604:FKP196616 FKP262140:FKP262152 FKP327676:FKP327688 FKP393212:FKP393224 FKP458748:FKP458760 FKP524284:FKP524296 FKP589820:FKP589832 FKP655356:FKP655368 FKP720892:FKP720904 FKP786428:FKP786440 FKP851964:FKP851976 FKP917500:FKP917512 FKP983036:FKP983048 FUL65532:FUL65544 FUL131068:FUL131080 FUL196604:FUL196616 FUL262140:FUL262152 FUL327676:FUL327688 FUL393212:FUL393224 FUL458748:FUL458760 FUL524284:FUL524296 FUL589820:FUL589832 FUL655356:FUL655368 FUL720892:FUL720904 FUL786428:FUL786440 FUL851964:FUL851976 FUL917500:FUL917512 FUL983036:FUL983048 GEH65532:GEH65544 GEH131068:GEH131080 GEH196604:GEH196616 GEH262140:GEH262152 GEH327676:GEH327688 GEH393212:GEH393224 GEH458748:GEH458760 GEH524284:GEH524296 GEH589820:GEH589832 GEH655356:GEH655368 GEH720892:GEH720904 GEH786428:GEH786440 GEH851964:GEH851976 GEH917500:GEH917512 GEH983036:GEH983048 GOD65532:GOD65544 GOD131068:GOD131080 GOD196604:GOD196616 GOD262140:GOD262152 GOD327676:GOD327688 GOD393212:GOD393224 GOD458748:GOD458760 GOD524284:GOD524296 GOD589820:GOD589832 GOD655356:GOD655368 GOD720892:GOD720904 GOD786428:GOD786440 GOD851964:GOD851976 GOD917500:GOD917512 GOD983036:GOD983048 GXZ65532:GXZ65544 GXZ131068:GXZ131080 GXZ196604:GXZ196616 GXZ262140:GXZ262152 GXZ327676:GXZ327688 GXZ393212:GXZ393224 GXZ458748:GXZ458760 GXZ524284:GXZ524296 GXZ589820:GXZ589832 GXZ655356:GXZ655368 GXZ720892:GXZ720904 GXZ786428:GXZ786440 GXZ851964:GXZ851976 GXZ917500:GXZ917512 GXZ983036:GXZ983048 HHV65532:HHV65544 HHV131068:HHV131080 HHV196604:HHV196616 HHV262140:HHV262152 HHV327676:HHV327688 HHV393212:HHV393224 HHV458748:HHV458760 HHV524284:HHV524296 HHV589820:HHV589832 HHV655356:HHV655368 HHV720892:HHV720904 HHV786428:HHV786440 HHV851964:HHV851976 HHV917500:HHV917512 HHV983036:HHV983048 HRR65532:HRR65544 HRR131068:HRR131080 HRR196604:HRR196616 HRR262140:HRR262152 HRR327676:HRR327688 HRR393212:HRR393224 HRR458748:HRR458760 HRR524284:HRR524296 HRR589820:HRR589832 HRR655356:HRR655368 HRR720892:HRR720904 HRR786428:HRR786440 HRR851964:HRR851976 HRR917500:HRR917512 HRR983036:HRR983048 IBN65532:IBN65544 IBN131068:IBN131080 IBN196604:IBN196616 IBN262140:IBN262152 IBN327676:IBN327688 IBN393212:IBN393224 IBN458748:IBN458760 IBN524284:IBN524296 IBN589820:IBN589832 IBN655356:IBN655368 IBN720892:IBN720904 IBN786428:IBN786440 IBN851964:IBN851976 IBN917500:IBN917512 IBN983036:IBN983048 ILJ65532:ILJ65544 ILJ131068:ILJ131080 ILJ196604:ILJ196616 ILJ262140:ILJ262152 ILJ327676:ILJ327688 ILJ393212:ILJ393224 ILJ458748:ILJ458760 ILJ524284:ILJ524296 ILJ589820:ILJ589832 ILJ655356:ILJ655368 ILJ720892:ILJ720904 ILJ786428:ILJ786440 ILJ851964:ILJ851976 ILJ917500:ILJ917512 ILJ983036:ILJ983048 IVF65532:IVF65544 IVF131068:IVF131080 IVF196604:IVF196616 IVF262140:IVF262152 IVF327676:IVF327688 IVF393212:IVF393224 IVF458748:IVF458760 IVF524284:IVF524296 IVF589820:IVF589832 IVF655356:IVF655368 IVF720892:IVF720904 IVF786428:IVF786440 IVF851964:IVF851976 IVF917500:IVF917512 IVF983036:IVF983048 JFB65532:JFB65544 JFB131068:JFB131080 JFB196604:JFB196616 JFB262140:JFB262152 JFB327676:JFB327688 JFB393212:JFB393224 JFB458748:JFB458760 JFB524284:JFB524296 JFB589820:JFB589832 JFB655356:JFB655368 JFB720892:JFB720904 JFB786428:JFB786440 JFB851964:JFB851976 JFB917500:JFB917512 JFB983036:JFB983048 JOX65532:JOX65544 JOX131068:JOX131080 JOX196604:JOX196616 JOX262140:JOX262152 JOX327676:JOX327688 JOX393212:JOX393224 JOX458748:JOX458760 JOX524284:JOX524296 JOX589820:JOX589832 JOX655356:JOX655368 JOX720892:JOX720904 JOX786428:JOX786440 JOX851964:JOX851976 JOX917500:JOX917512 JOX983036:JOX983048 JYT65532:JYT65544 JYT131068:JYT131080 JYT196604:JYT196616 JYT262140:JYT262152 JYT327676:JYT327688 JYT393212:JYT393224 JYT458748:JYT458760 JYT524284:JYT524296 JYT589820:JYT589832 JYT655356:JYT655368 JYT720892:JYT720904 JYT786428:JYT786440 JYT851964:JYT851976 JYT917500:JYT917512 JYT983036:JYT983048 KIP65532:KIP65544 KIP131068:KIP131080 KIP196604:KIP196616 KIP262140:KIP262152 KIP327676:KIP327688 KIP393212:KIP393224 KIP458748:KIP458760 KIP524284:KIP524296 KIP589820:KIP589832 KIP655356:KIP655368 KIP720892:KIP720904 KIP786428:KIP786440 KIP851964:KIP851976 KIP917500:KIP917512 KIP983036:KIP983048 KSL65532:KSL65544 KSL131068:KSL131080 KSL196604:KSL196616 KSL262140:KSL262152 KSL327676:KSL327688 KSL393212:KSL393224 KSL458748:KSL458760 KSL524284:KSL524296 KSL589820:KSL589832 KSL655356:KSL655368 KSL720892:KSL720904 KSL786428:KSL786440 KSL851964:KSL851976 KSL917500:KSL917512 KSL983036:KSL983048 LCH65532:LCH65544 LCH131068:LCH131080 LCH196604:LCH196616 LCH262140:LCH262152 LCH327676:LCH327688 LCH393212:LCH393224 LCH458748:LCH458760 LCH524284:LCH524296 LCH589820:LCH589832 LCH655356:LCH655368 LCH720892:LCH720904 LCH786428:LCH786440 LCH851964:LCH851976 LCH917500:LCH917512 LCH983036:LCH983048 LMD65532:LMD65544 LMD131068:LMD131080 LMD196604:LMD196616 LMD262140:LMD262152 LMD327676:LMD327688 LMD393212:LMD393224 LMD458748:LMD458760 LMD524284:LMD524296 LMD589820:LMD589832 LMD655356:LMD655368 LMD720892:LMD720904 LMD786428:LMD786440 LMD851964:LMD851976 LMD917500:LMD917512 LMD983036:LMD983048 LVZ65532:LVZ65544 LVZ131068:LVZ131080 LVZ196604:LVZ196616 LVZ262140:LVZ262152 LVZ327676:LVZ327688 LVZ393212:LVZ393224 LVZ458748:LVZ458760 LVZ524284:LVZ524296 LVZ589820:LVZ589832 LVZ655356:LVZ655368 LVZ720892:LVZ720904 LVZ786428:LVZ786440 LVZ851964:LVZ851976 LVZ917500:LVZ917512 LVZ983036:LVZ983048 MFV65532:MFV65544 MFV131068:MFV131080 MFV196604:MFV196616 MFV262140:MFV262152 MFV327676:MFV327688 MFV393212:MFV393224 MFV458748:MFV458760 MFV524284:MFV524296 MFV589820:MFV589832 MFV655356:MFV655368 MFV720892:MFV720904 MFV786428:MFV786440 MFV851964:MFV851976 MFV917500:MFV917512 MFV983036:MFV983048 MPR65532:MPR65544 MPR131068:MPR131080 MPR196604:MPR196616 MPR262140:MPR262152 MPR327676:MPR327688 MPR393212:MPR393224 MPR458748:MPR458760 MPR524284:MPR524296 MPR589820:MPR589832 MPR655356:MPR655368 MPR720892:MPR720904 MPR786428:MPR786440 MPR851964:MPR851976 MPR917500:MPR917512 MPR983036:MPR983048 MZN65532:MZN65544 MZN131068:MZN131080 MZN196604:MZN196616 MZN262140:MZN262152 MZN327676:MZN327688 MZN393212:MZN393224 MZN458748:MZN458760 MZN524284:MZN524296 MZN589820:MZN589832 MZN655356:MZN655368 MZN720892:MZN720904 MZN786428:MZN786440 MZN851964:MZN851976 MZN917500:MZN917512 MZN983036:MZN983048 NJJ65532:NJJ65544 NJJ131068:NJJ131080 NJJ196604:NJJ196616 NJJ262140:NJJ262152 NJJ327676:NJJ327688 NJJ393212:NJJ393224 NJJ458748:NJJ458760 NJJ524284:NJJ524296 NJJ589820:NJJ589832 NJJ655356:NJJ655368 NJJ720892:NJJ720904 NJJ786428:NJJ786440 NJJ851964:NJJ851976 NJJ917500:NJJ917512 NJJ983036:NJJ983048 NTF65532:NTF65544 NTF131068:NTF131080 NTF196604:NTF196616 NTF262140:NTF262152 NTF327676:NTF327688 NTF393212:NTF393224 NTF458748:NTF458760 NTF524284:NTF524296 NTF589820:NTF589832 NTF655356:NTF655368 NTF720892:NTF720904 NTF786428:NTF786440 NTF851964:NTF851976 NTF917500:NTF917512 NTF983036:NTF983048 ODB65532:ODB65544 ODB131068:ODB131080 ODB196604:ODB196616 ODB262140:ODB262152 ODB327676:ODB327688 ODB393212:ODB393224 ODB458748:ODB458760 ODB524284:ODB524296 ODB589820:ODB589832 ODB655356:ODB655368 ODB720892:ODB720904 ODB786428:ODB786440 ODB851964:ODB851976 ODB917500:ODB917512 ODB983036:ODB983048 OMX65532:OMX65544 OMX131068:OMX131080 OMX196604:OMX196616 OMX262140:OMX262152 OMX327676:OMX327688 OMX393212:OMX393224 OMX458748:OMX458760 OMX524284:OMX524296 OMX589820:OMX589832 OMX655356:OMX655368 OMX720892:OMX720904 OMX786428:OMX786440 OMX851964:OMX851976 OMX917500:OMX917512 OMX983036:OMX983048 OWT65532:OWT65544 OWT131068:OWT131080 OWT196604:OWT196616 OWT262140:OWT262152 OWT327676:OWT327688 OWT393212:OWT393224 OWT458748:OWT458760 OWT524284:OWT524296 OWT589820:OWT589832 OWT655356:OWT655368 OWT720892:OWT720904 OWT786428:OWT786440 OWT851964:OWT851976 OWT917500:OWT917512 OWT983036:OWT983048 PGP65532:PGP65544 PGP131068:PGP131080 PGP196604:PGP196616 PGP262140:PGP262152 PGP327676:PGP327688 PGP393212:PGP393224 PGP458748:PGP458760 PGP524284:PGP524296 PGP589820:PGP589832 PGP655356:PGP655368 PGP720892:PGP720904 PGP786428:PGP786440 PGP851964:PGP851976 PGP917500:PGP917512 PGP983036:PGP983048 PQL65532:PQL65544 PQL131068:PQL131080 PQL196604:PQL196616 PQL262140:PQL262152 PQL327676:PQL327688 PQL393212:PQL393224 PQL458748:PQL458760 PQL524284:PQL524296 PQL589820:PQL589832 PQL655356:PQL655368 PQL720892:PQL720904 PQL786428:PQL786440 PQL851964:PQL851976 PQL917500:PQL917512 PQL983036:PQL983048 QAH65532:QAH65544 QAH131068:QAH131080 QAH196604:QAH196616 QAH262140:QAH262152 QAH327676:QAH327688 QAH393212:QAH393224 QAH458748:QAH458760 QAH524284:QAH524296 QAH589820:QAH589832 QAH655356:QAH655368 QAH720892:QAH720904 QAH786428:QAH786440 QAH851964:QAH851976 QAH917500:QAH917512 QAH983036:QAH983048 QKD65532:QKD65544 QKD131068:QKD131080 QKD196604:QKD196616 QKD262140:QKD262152 QKD327676:QKD327688 QKD393212:QKD393224 QKD458748:QKD458760 QKD524284:QKD524296 QKD589820:QKD589832 QKD655356:QKD655368 QKD720892:QKD720904 QKD786428:QKD786440 QKD851964:QKD851976 QKD917500:QKD917512 QKD983036:QKD983048 QTZ65532:QTZ65544 QTZ131068:QTZ131080 QTZ196604:QTZ196616 QTZ262140:QTZ262152 QTZ327676:QTZ327688 QTZ393212:QTZ393224 QTZ458748:QTZ458760 QTZ524284:QTZ524296 QTZ589820:QTZ589832 QTZ655356:QTZ655368 QTZ720892:QTZ720904 QTZ786428:QTZ786440 QTZ851964:QTZ851976 QTZ917500:QTZ917512 QTZ983036:QTZ983048 RDV65532:RDV65544 RDV131068:RDV131080 RDV196604:RDV196616 RDV262140:RDV262152 RDV327676:RDV327688 RDV393212:RDV393224 RDV458748:RDV458760 RDV524284:RDV524296 RDV589820:RDV589832 RDV655356:RDV655368 RDV720892:RDV720904 RDV786428:RDV786440 RDV851964:RDV851976 RDV917500:RDV917512 RDV983036:RDV983048 RNR65532:RNR65544 RNR131068:RNR131080 RNR196604:RNR196616 RNR262140:RNR262152 RNR327676:RNR327688 RNR393212:RNR393224 RNR458748:RNR458760 RNR524284:RNR524296 RNR589820:RNR589832 RNR655356:RNR655368 RNR720892:RNR720904 RNR786428:RNR786440 RNR851964:RNR851976 RNR917500:RNR917512 RNR983036:RNR983048 RXN65532:RXN65544 RXN131068:RXN131080 RXN196604:RXN196616 RXN262140:RXN262152 RXN327676:RXN327688 RXN393212:RXN393224 RXN458748:RXN458760 RXN524284:RXN524296 RXN589820:RXN589832 RXN655356:RXN655368 RXN720892:RXN720904 RXN786428:RXN786440 RXN851964:RXN851976 RXN917500:RXN917512 RXN983036:RXN983048 SHJ65532:SHJ65544 SHJ131068:SHJ131080 SHJ196604:SHJ196616 SHJ262140:SHJ262152 SHJ327676:SHJ327688 SHJ393212:SHJ393224 SHJ458748:SHJ458760 SHJ524284:SHJ524296 SHJ589820:SHJ589832 SHJ655356:SHJ655368 SHJ720892:SHJ720904 SHJ786428:SHJ786440 SHJ851964:SHJ851976 SHJ917500:SHJ917512 SHJ983036:SHJ983048 SRF65532:SRF65544 SRF131068:SRF131080 SRF196604:SRF196616 SRF262140:SRF262152 SRF327676:SRF327688 SRF393212:SRF393224 SRF458748:SRF458760 SRF524284:SRF524296 SRF589820:SRF589832 SRF655356:SRF655368 SRF720892:SRF720904 SRF786428:SRF786440 SRF851964:SRF851976 SRF917500:SRF917512 SRF983036:SRF983048 TBB65532:TBB65544 TBB131068:TBB131080 TBB196604:TBB196616 TBB262140:TBB262152 TBB327676:TBB327688 TBB393212:TBB393224 TBB458748:TBB458760 TBB524284:TBB524296 TBB589820:TBB589832 TBB655356:TBB655368 TBB720892:TBB720904 TBB786428:TBB786440 TBB851964:TBB851976 TBB917500:TBB917512 TBB983036:TBB983048 TKX65532:TKX65544 TKX131068:TKX131080 TKX196604:TKX196616 TKX262140:TKX262152 TKX327676:TKX327688 TKX393212:TKX393224 TKX458748:TKX458760 TKX524284:TKX524296 TKX589820:TKX589832 TKX655356:TKX655368 TKX720892:TKX720904 TKX786428:TKX786440 TKX851964:TKX851976 TKX917500:TKX917512 TKX983036:TKX983048 TUT65532:TUT65544 TUT131068:TUT131080 TUT196604:TUT196616 TUT262140:TUT262152 TUT327676:TUT327688 TUT393212:TUT393224 TUT458748:TUT458760 TUT524284:TUT524296 TUT589820:TUT589832 TUT655356:TUT655368 TUT720892:TUT720904 TUT786428:TUT786440 TUT851964:TUT851976 TUT917500:TUT917512 TUT983036:TUT983048 UEP65532:UEP65544 UEP131068:UEP131080 UEP196604:UEP196616 UEP262140:UEP262152 UEP327676:UEP327688 UEP393212:UEP393224 UEP458748:UEP458760 UEP524284:UEP524296 UEP589820:UEP589832 UEP655356:UEP655368 UEP720892:UEP720904 UEP786428:UEP786440 UEP851964:UEP851976 UEP917500:UEP917512 UEP983036:UEP983048 UOL65532:UOL65544 UOL131068:UOL131080 UOL196604:UOL196616 UOL262140:UOL262152 UOL327676:UOL327688 UOL393212:UOL393224 UOL458748:UOL458760 UOL524284:UOL524296 UOL589820:UOL589832 UOL655356:UOL655368 UOL720892:UOL720904 UOL786428:UOL786440 UOL851964:UOL851976 UOL917500:UOL917512 UOL983036:UOL983048 UYH65532:UYH65544 UYH131068:UYH131080 UYH196604:UYH196616 UYH262140:UYH262152 UYH327676:UYH327688 UYH393212:UYH393224 UYH458748:UYH458760 UYH524284:UYH524296 UYH589820:UYH589832 UYH655356:UYH655368 UYH720892:UYH720904 UYH786428:UYH786440 UYH851964:UYH851976 UYH917500:UYH917512 UYH983036:UYH983048 VID65532:VID65544 VID131068:VID131080 VID196604:VID196616 VID262140:VID262152 VID327676:VID327688 VID393212:VID393224 VID458748:VID458760 VID524284:VID524296 VID589820:VID589832 VID655356:VID655368 VID720892:VID720904 VID786428:VID786440 VID851964:VID851976 VID917500:VID917512 VID983036:VID983048 VRZ65532:VRZ65544 VRZ131068:VRZ131080 VRZ196604:VRZ196616 VRZ262140:VRZ262152 VRZ327676:VRZ327688 VRZ393212:VRZ393224 VRZ458748:VRZ458760 VRZ524284:VRZ524296 VRZ589820:VRZ589832 VRZ655356:VRZ655368 VRZ720892:VRZ720904 VRZ786428:VRZ786440 VRZ851964:VRZ851976 VRZ917500:VRZ917512 VRZ983036:VRZ983048 WBV65532:WBV65544 WBV131068:WBV131080 WBV196604:WBV196616 WBV262140:WBV262152 WBV327676:WBV327688 WBV393212:WBV393224 WBV458748:WBV458760 WBV524284:WBV524296 WBV589820:WBV589832 WBV655356:WBV655368 WBV720892:WBV720904 WBV786428:WBV786440 WBV851964:WBV851976 WBV917500:WBV917512 WBV983036:WBV983048 WLR65532:WLR65544 WLR131068:WLR131080 WLR196604:WLR196616 WLR262140:WLR262152 WLR327676:WLR327688 WLR393212:WLR393224 WLR458748:WLR458760 WLR524284:WLR524296 WLR589820:WLR589832 WLR655356:WLR655368 WLR720892:WLR720904 WLR786428:WLR786440 WLR851964:WLR851976 WLR917500:WLR917512 WLR983036:WLR983048 WVN983036:WVN983048 WVN65532:WVN65544 WVN131068:WVN131080 WVN196604:WVN196616 WVN262140:WVN262152 WVN327676:WVN327688 WVN393212:WVN393224 WVN458748:WVN458760 WVN524284:WVN524296 WVN589820:WVN589832 WVN655356:WVN655368 WVN720892:WVN720904 WVN786428:WVN786440 WVN851964:WVN851976 WVN917500:WVN917512 AMP4:AMP8 AWL4:AWL8 BGH4:BGH8 BQD4:BQD8 BZZ4:BZZ8 CJV4:CJV8 CTR4:CTR8 DDN4:DDN8 DNJ4:DNJ8 DXF4:DXF8 EHB4:EHB8 EQX4:EQX8 FAT4:FAT8 FKP4:FKP8 FUL4:FUL8 GEH4:GEH8 GOD4:GOD8 GXZ4:GXZ8 HHV4:HHV8 HRR4:HRR8 IBN4:IBN8 ILJ4:ILJ8 IVF4:IVF8 JFB4:JFB8 JOX4:JOX8 JYT4:JYT8 KIP4:KIP8 KSL4:KSL8 LCH4:LCH8 LMD4:LMD8 LVZ4:LVZ8 MFV4:MFV8 MPR4:MPR8 MZN4:MZN8 NJJ4:NJJ8 NTF4:NTF8 ODB4:ODB8 OMX4:OMX8 OWT4:OWT8 PGP4:PGP8 PQL4:PQL8 QAH4:QAH8 QKD4:QKD8 QTZ4:QTZ8 RDV4:RDV8 RNR4:RNR8 RXN4:RXN8 SHJ4:SHJ8 SRF4:SRF8 TBB4:TBB8 TKX4:TKX8 TUT4:TUT8 UEP4:UEP8 UOL4:UOL8 UYH4:UYH8 VID4:VID8 VRZ4:VRZ8 WBV4:WBV8 WLR4:WLR8 WVN4:WVN8 F4:F8 JB4:JB8 SX4:SX8 ACT4:ACT8">
       <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
   </dataValidations>
